--- a/datos/datos_peso_REVISION.xlsx
+++ b/datos/datos_peso_REVISION.xlsx
@@ -73,10 +73,10 @@
     <t xml:space="preserve">peso total final (g)</t>
   </si>
   <si>
-    <t xml:space="preserve">Incremento peso total</t>
+    <t xml:space="preserve">ganancia de peso total (g)</t>
   </si>
   <si>
-    <t xml:space="preserve">incremento n total</t>
+    <t xml:space="preserve">incremento n</t>
   </si>
   <si>
     <t xml:space="preserve">peso medio final tratamiento</t>
@@ -104,12 +104,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="0.00\ %"/>
-    <numFmt numFmtId="168" formatCode="0.00\ %"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -152,13 +151,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.6"/>
-        <bgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor rgb="FFB4C7E7"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -229,24 +228,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -258,7 +257,21 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF006600"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -273,45 +286,6 @@
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF006600"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF006600"/>
-        <sz val="11"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -339,7 +313,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFC2E0FD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -556,15 +530,15 @@
   </sheetPr>
   <dimension ref="A1:K267"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K18" activeCellId="1" sqref="I:I K18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K18" activeCellId="1" sqref="A1:H21 K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.93"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -594,10 +568,10 @@
       <c r="D2" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -614,10 +588,10 @@
       <c r="D3" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" s="1" t="n">
         <f aca="false">SUM(D2:D15)</f>
         <v>284</v>
       </c>
@@ -635,10 +609,10 @@
       <c r="D4" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="1" t="n">
         <f aca="false">SUM(D16:D24)</f>
         <v>268</v>
       </c>
@@ -656,10 +630,10 @@
       <c r="D5" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="1" t="n">
         <f aca="false">SUM(D25:D39)</f>
         <v>304</v>
       </c>
@@ -677,10 +651,10 @@
       <c r="D6" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="1" t="n">
         <f aca="false">SUM(D40:D50)</f>
         <v>206</v>
       </c>
@@ -698,10 +672,10 @@
       <c r="D7" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" s="1" t="n">
         <f aca="false">SUM(D51:D63)</f>
         <v>215</v>
       </c>
@@ -719,10 +693,10 @@
       <c r="D8" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8" s="1" t="n">
         <f aca="false">SUM(D64:D84)</f>
         <v>392</v>
       </c>
@@ -740,10 +714,10 @@
       <c r="D9" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9" s="1" t="n">
         <f aca="false">SUM(D85:D101)</f>
         <v>292</v>
       </c>
@@ -761,10 +735,10 @@
       <c r="D10" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="1" t="n">
         <f aca="false">SUM(D102:D111)</f>
         <v>186</v>
       </c>
@@ -782,10 +756,10 @@
       <c r="D11" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="J11" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="K11" s="0" t="n">
+      <c r="J11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K11" s="1" t="n">
         <f aca="false">SUM(D112:D121)</f>
         <v>134</v>
       </c>
@@ -803,10 +777,10 @@
       <c r="D12" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12" s="1" t="n">
         <f aca="false">SUM(D122:D132)</f>
         <v>143</v>
       </c>
@@ -824,10 +798,10 @@
       <c r="D13" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13" s="1" t="n">
         <f aca="false">SUM(D133:D144)</f>
         <v>193</v>
       </c>
@@ -845,10 +819,10 @@
       <c r="D14" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14" s="1" t="n">
         <f aca="false">SUM(D145:D158)</f>
         <v>254</v>
       </c>
@@ -866,10 +840,10 @@
       <c r="D15" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15" s="1" t="n">
         <f aca="false">SUM(D159:D170)</f>
         <v>135</v>
       </c>
@@ -887,10 +861,10 @@
       <c r="D16" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="K16" s="1" t="n">
         <f aca="false">SUM(D171:D183)</f>
         <v>191</v>
       </c>
@@ -908,10 +882,10 @@
       <c r="D17" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="K17" s="1" t="n">
         <f aca="false">SUM(D184:D197)</f>
         <v>170</v>
       </c>
@@ -929,10 +903,10 @@
       <c r="D18" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="K18" s="1" t="n">
         <f aca="false">SUM(D198:D216)</f>
         <v>231</v>
       </c>
@@ -950,10 +924,10 @@
       <c r="D19" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="J19" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="K19" s="0" t="n">
+      <c r="J19" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K19" s="1" t="n">
         <f aca="false">SUM(D217:D231)</f>
         <v>186</v>
       </c>
@@ -971,10 +945,10 @@
       <c r="D20" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="J20" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="K20" s="0" t="n">
+      <c r="J20" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K20" s="1" t="n">
         <f aca="false">SUM(D232:D241)</f>
         <v>155</v>
       </c>
@@ -992,10 +966,10 @@
       <c r="D21" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="J21" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K21" s="0" t="n">
+      <c r="J21" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K21" s="1" t="n">
         <f aca="false">SUM(D242:D253)</f>
         <v>172</v>
       </c>
@@ -1013,10 +987,10 @@
       <c r="D22" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="J22" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="K22" s="1" t="n">
         <f aca="false">SUM(D254:D267)</f>
         <v>246</v>
       </c>
@@ -4469,13 +4443,13 @@
   </sheetPr>
   <dimension ref="A1:C278"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A132" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C140" activeCellId="1" sqref="I:I C140"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A132" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C140" activeCellId="1" sqref="A1:H21 C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7554,8 +7528,8 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="1" sqref="I:I F17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="A1:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8008,15 +7982,15 @@
   </sheetPr>
   <dimension ref="A1:L295"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L20" activeCellId="1" sqref="I:I L20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L20" activeCellId="1" sqref="A1:H21 L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8038,7 +8012,7 @@
       <c r="G1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -8061,7 +8035,7 @@
       <c r="G2" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>16</v>
       </c>
     </row>
@@ -8084,7 +8058,7 @@
       <c r="G3" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>16</v>
       </c>
     </row>
@@ -8107,13 +8081,13 @@
       <c r="G4" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="L4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -8136,13 +8110,13 @@
       <c r="G5" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="1" t="n">
         <f aca="false">SUM(G2:G19)</f>
         <v>358</v>
       </c>
@@ -8166,13 +8140,13 @@
       <c r="G6" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6" s="1" t="n">
         <f aca="false">SUM(G20:G36)</f>
         <v>360</v>
       </c>
@@ -8196,13 +8170,13 @@
       <c r="G7" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7" s="1" t="n">
         <f aca="false">SUM(G37:G51)</f>
         <v>312</v>
       </c>
@@ -8226,13 +8200,13 @@
       <c r="G8" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8" s="1" t="n">
         <f aca="false">SUM(G52:G70)</f>
         <v>351</v>
       </c>
@@ -8256,13 +8230,13 @@
       <c r="G9" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9" s="1" t="n">
         <f aca="false">SUM(G71:G89)</f>
         <v>304</v>
       </c>
@@ -8286,13 +8260,13 @@
       <c r="G10" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10" s="1" t="n">
         <f aca="false">SUM(G90:G102)</f>
         <v>305</v>
       </c>
@@ -8316,13 +8290,13 @@
       <c r="G11" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11" s="1" t="n">
         <f aca="false">SUM(G103:G117)</f>
         <v>348</v>
       </c>
@@ -8346,13 +8320,13 @@
       <c r="G12" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12" s="1" t="n">
         <f aca="false">SUM(G118:G130)</f>
         <v>277</v>
       </c>
@@ -8376,13 +8350,13 @@
       <c r="G13" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="K13" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="L13" s="0" t="n">
+      <c r="K13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L13" s="1" t="n">
         <f aca="false">SUM(G131:G141)</f>
         <v>214</v>
       </c>
@@ -8406,13 +8380,13 @@
       <c r="G14" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="L14" s="1" t="n">
         <f aca="false">SUM(G142:G152)</f>
         <v>179</v>
       </c>
@@ -8436,13 +8410,13 @@
       <c r="G15" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="L15" s="1" t="n">
         <f aca="false">SUM(G159:G170)</f>
         <v>299</v>
       </c>
@@ -8466,13 +8440,13 @@
       <c r="G16" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="K16" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="L16" s="1" t="n">
         <f aca="false">SUM(G171:G183)</f>
         <v>326</v>
       </c>
@@ -8496,13 +8470,13 @@
       <c r="G17" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="K17" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="L17" s="1" t="n">
         <f aca="false">SUM(G184:G194)</f>
         <v>220</v>
       </c>
@@ -8526,13 +8500,13 @@
       <c r="G18" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="K18" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="L18" s="1" t="n">
         <f aca="false">SUM(G195:G210)</f>
         <v>390</v>
       </c>
@@ -8556,13 +8530,13 @@
       <c r="G19" s="7" t="n">
         <v>55</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="K19" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="L19" s="1" t="n">
         <f aca="false">SUM(G211:G225)</f>
         <v>339</v>
       </c>
@@ -8586,13 +8560,13 @@
       <c r="G20" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="K20" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="L20" s="1" t="n">
         <f aca="false">SUM(G226:G239)</f>
         <v>241</v>
       </c>
@@ -8616,13 +8590,13 @@
       <c r="G21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="K21" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="L21" s="0" t="n">
+      <c r="K21" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L21" s="1" t="n">
         <f aca="false">SUM(G240:G251)</f>
         <v>273</v>
       </c>
@@ -8646,13 +8620,13 @@
       <c r="G22" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="K22" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="L22" s="0" t="n">
+      <c r="K22" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L22" s="1" t="n">
         <f aca="false">SUM(G252:G261)</f>
         <v>160</v>
       </c>
@@ -8676,13 +8650,13 @@
       <c r="G23" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="K23" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L23" s="0" t="n">
+      <c r="K23" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="L23" s="1" t="n">
         <f aca="false">SUM(G262:G273)</f>
         <v>280</v>
       </c>
@@ -8706,13 +8680,13 @@
       <c r="G24" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="K24" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="L24" s="1" t="n">
         <f aca="false">SUM(G274:G284)</f>
         <v>137</v>
       </c>
@@ -8736,7 +8710,7 @@
       <c r="G25" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25" s="1" t="n">
         <v>17</v>
       </c>
     </row>
@@ -8759,7 +8733,7 @@
       <c r="G26" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26" s="1" t="n">
         <v>17</v>
       </c>
     </row>
@@ -8782,7 +8756,7 @@
       <c r="G27" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="H27" s="1" t="n">
         <v>17</v>
       </c>
     </row>
@@ -8805,7 +8779,7 @@
       <c r="G28" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="H28" s="1" t="n">
         <v>17</v>
       </c>
     </row>
@@ -8828,7 +8802,7 @@
       <c r="G29" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29" s="1" t="n">
         <v>17</v>
       </c>
     </row>
@@ -8851,7 +8825,7 @@
       <c r="G30" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="H30" s="1" t="n">
         <v>17</v>
       </c>
     </row>
@@ -8874,7 +8848,7 @@
       <c r="G31" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="H31" s="1" t="n">
         <v>17</v>
       </c>
     </row>
@@ -8897,7 +8871,7 @@
       <c r="G32" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="H32" s="0" t="n">
+      <c r="H32" s="1" t="n">
         <v>17</v>
       </c>
     </row>
@@ -8920,7 +8894,7 @@
       <c r="G33" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="H33" s="0" t="n">
+      <c r="H33" s="1" t="n">
         <v>17</v>
       </c>
     </row>
@@ -8943,7 +8917,7 @@
       <c r="G34" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="H34" s="0" t="n">
+      <c r="H34" s="1" t="n">
         <v>17</v>
       </c>
     </row>
@@ -8966,7 +8940,7 @@
       <c r="G35" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="H35" s="0" t="n">
+      <c r="H35" s="1" t="n">
         <v>17</v>
       </c>
     </row>
@@ -8989,7 +8963,7 @@
       <c r="G36" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="H36" s="0" t="n">
+      <c r="H36" s="1" t="n">
         <v>17</v>
       </c>
     </row>
@@ -9012,7 +8986,7 @@
       <c r="G37" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="H37" s="0" t="n">
+      <c r="H37" s="1" t="n">
         <v>18</v>
       </c>
     </row>
@@ -9035,7 +9009,7 @@
       <c r="G38" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="H38" s="0" t="n">
+      <c r="H38" s="1" t="n">
         <v>18</v>
       </c>
     </row>
@@ -9058,7 +9032,7 @@
       <c r="G39" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="H39" s="0" t="n">
+      <c r="H39" s="1" t="n">
         <v>18</v>
       </c>
     </row>
@@ -9081,7 +9055,7 @@
       <c r="G40" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="H40" s="0" t="n">
+      <c r="H40" s="1" t="n">
         <v>18</v>
       </c>
     </row>
@@ -9104,7 +9078,7 @@
       <c r="G41" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="H41" s="0" t="n">
+      <c r="H41" s="1" t="n">
         <v>18</v>
       </c>
     </row>
@@ -9127,7 +9101,7 @@
       <c r="G42" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="H42" s="0" t="n">
+      <c r="H42" s="1" t="n">
         <v>18</v>
       </c>
     </row>
@@ -9150,7 +9124,7 @@
       <c r="G43" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="H43" s="0" t="n">
+      <c r="H43" s="1" t="n">
         <v>18</v>
       </c>
     </row>
@@ -9173,7 +9147,7 @@
       <c r="G44" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="H44" s="0" t="n">
+      <c r="H44" s="1" t="n">
         <v>18</v>
       </c>
     </row>
@@ -9196,7 +9170,7 @@
       <c r="G45" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="H45" s="0" t="n">
+      <c r="H45" s="1" t="n">
         <v>18</v>
       </c>
     </row>
@@ -9219,7 +9193,7 @@
       <c r="G46" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="H46" s="0" t="n">
+      <c r="H46" s="1" t="n">
         <v>18</v>
       </c>
     </row>
@@ -9242,7 +9216,7 @@
       <c r="G47" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="H47" s="0" t="n">
+      <c r="H47" s="1" t="n">
         <v>18</v>
       </c>
     </row>
@@ -9265,7 +9239,7 @@
       <c r="G48" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H48" s="0" t="n">
+      <c r="H48" s="1" t="n">
         <v>18</v>
       </c>
     </row>
@@ -9288,7 +9262,7 @@
       <c r="G49" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H49" s="0" t="n">
+      <c r="H49" s="1" t="n">
         <v>18</v>
       </c>
     </row>
@@ -9311,7 +9285,7 @@
       <c r="G50" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="H50" s="0" t="n">
+      <c r="H50" s="1" t="n">
         <v>18</v>
       </c>
     </row>
@@ -9334,7 +9308,7 @@
       <c r="G51" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="H51" s="0" t="n">
+      <c r="H51" s="1" t="n">
         <v>18</v>
       </c>
     </row>
@@ -9357,7 +9331,7 @@
       <c r="G52" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="H52" s="0" t="n">
+      <c r="H52" s="1" t="n">
         <v>19</v>
       </c>
     </row>
@@ -9380,7 +9354,7 @@
       <c r="G53" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="H53" s="0" t="n">
+      <c r="H53" s="1" t="n">
         <v>19</v>
       </c>
     </row>
@@ -9403,7 +9377,7 @@
       <c r="G54" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="H54" s="0" t="n">
+      <c r="H54" s="1" t="n">
         <v>19</v>
       </c>
     </row>
@@ -9426,7 +9400,7 @@
       <c r="G55" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="H55" s="0" t="n">
+      <c r="H55" s="1" t="n">
         <v>19</v>
       </c>
     </row>
@@ -9449,7 +9423,7 @@
       <c r="G56" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="H56" s="0" t="n">
+      <c r="H56" s="1" t="n">
         <v>19</v>
       </c>
     </row>
@@ -9472,7 +9446,7 @@
       <c r="G57" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="H57" s="0" t="n">
+      <c r="H57" s="1" t="n">
         <v>19</v>
       </c>
     </row>
@@ -9495,7 +9469,7 @@
       <c r="G58" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="H58" s="0" t="n">
+      <c r="H58" s="1" t="n">
         <v>19</v>
       </c>
     </row>
@@ -9518,7 +9492,7 @@
       <c r="G59" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="H59" s="0" t="n">
+      <c r="H59" s="1" t="n">
         <v>19</v>
       </c>
     </row>
@@ -9541,7 +9515,7 @@
       <c r="G60" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="H60" s="0" t="n">
+      <c r="H60" s="1" t="n">
         <v>19</v>
       </c>
     </row>
@@ -9564,7 +9538,7 @@
       <c r="G61" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="H61" s="0" t="n">
+      <c r="H61" s="1" t="n">
         <v>19</v>
       </c>
     </row>
@@ -9587,7 +9561,7 @@
       <c r="G62" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="H62" s="0" t="n">
+      <c r="H62" s="1" t="n">
         <v>19</v>
       </c>
     </row>
@@ -9610,345 +9584,293 @@
       <c r="G63" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="H63" s="0" t="n">
+      <c r="H63" s="1" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="0"/>
-      <c r="C64" s="0"/>
       <c r="F64" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G64" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H64" s="0" t="n">
+      <c r="H64" s="1" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="0"/>
-      <c r="C65" s="0"/>
       <c r="F65" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G65" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="H65" s="0" t="n">
+      <c r="H65" s="1" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="0"/>
-      <c r="C66" s="0"/>
       <c r="F66" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G66" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="H66" s="0" t="n">
+      <c r="H66" s="1" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="0"/>
-      <c r="C67" s="0"/>
       <c r="F67" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G67" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="H67" s="0" t="n">
+      <c r="H67" s="1" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="0"/>
-      <c r="C68" s="0"/>
       <c r="F68" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G68" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H68" s="0" t="n">
+      <c r="H68" s="1" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="0"/>
-      <c r="C69" s="0"/>
       <c r="F69" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G69" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="H69" s="0" t="n">
+      <c r="H69" s="1" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="0"/>
-      <c r="C70" s="0"/>
       <c r="F70" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G70" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="H70" s="0" t="n">
+      <c r="H70" s="1" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="0"/>
-      <c r="C71" s="0"/>
       <c r="F71" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G71" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="H71" s="0" t="n">
+      <c r="H71" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="0"/>
-      <c r="C72" s="0"/>
       <c r="F72" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G72" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H72" s="0" t="n">
+      <c r="H72" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="0"/>
-      <c r="C73" s="0"/>
       <c r="F73" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G73" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="H73" s="0" t="n">
+      <c r="H73" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="0"/>
-      <c r="C74" s="0"/>
       <c r="F74" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G74" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="H74" s="0" t="n">
+      <c r="H74" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="0"/>
-      <c r="C75" s="0"/>
       <c r="F75" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G75" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="H75" s="0" t="n">
+      <c r="H75" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="0"/>
-      <c r="C76" s="0"/>
       <c r="F76" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G76" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H76" s="0" t="n">
+      <c r="H76" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="0"/>
-      <c r="C77" s="0"/>
       <c r="F77" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G77" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="H77" s="0" t="n">
+      <c r="H77" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="0"/>
-      <c r="C78" s="0"/>
       <c r="F78" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G78" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="H78" s="0" t="n">
+      <c r="H78" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="0"/>
-      <c r="C79" s="0"/>
       <c r="F79" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G79" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="H79" s="0" t="n">
+      <c r="H79" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="0"/>
-      <c r="C80" s="0"/>
       <c r="F80" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G80" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="H80" s="0" t="n">
+      <c r="H80" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="0"/>
-      <c r="C81" s="0"/>
       <c r="F81" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G81" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="H81" s="0" t="n">
+      <c r="H81" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="0"/>
-      <c r="C82" s="0"/>
       <c r="F82" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G82" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="H82" s="0" t="n">
+      <c r="H82" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="0"/>
-      <c r="C83" s="0"/>
       <c r="F83" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G83" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="H83" s="0" t="n">
+      <c r="H83" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="0"/>
-      <c r="C84" s="0"/>
       <c r="F84" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G84" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="H84" s="0" t="n">
+      <c r="H84" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="0"/>
-      <c r="C85" s="0"/>
       <c r="F85" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G85" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="H85" s="0" t="n">
+      <c r="H85" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="0"/>
-      <c r="C86" s="0"/>
       <c r="F86" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G86" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="H86" s="0" t="n">
+      <c r="H86" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="0"/>
-      <c r="C87" s="0"/>
       <c r="F87" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G87" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="H87" s="0" t="n">
+      <c r="H87" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="0"/>
-      <c r="C88" s="0"/>
       <c r="F88" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G88" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="H88" s="0" t="n">
+      <c r="H88" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="0"/>
-      <c r="C89" s="0"/>
       <c r="F89" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G89" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="H89" s="0" t="n">
+      <c r="H89" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9971,7 +9893,7 @@
       <c r="G90" s="7" t="n">
         <v>44</v>
       </c>
-      <c r="H90" s="0" t="n">
+      <c r="H90" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9994,7 +9916,7 @@
       <c r="G91" s="7" t="n">
         <v>66</v>
       </c>
-      <c r="H91" s="0" t="n">
+      <c r="H91" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10017,7 +9939,7 @@
       <c r="G92" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="H92" s="0" t="n">
+      <c r="H92" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10040,7 +9962,7 @@
       <c r="G93" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="H93" s="0" t="n">
+      <c r="H93" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10063,7 +9985,7 @@
       <c r="G94" s="7" t="n">
         <v>25</v>
       </c>
-      <c r="H94" s="0" t="n">
+      <c r="H94" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10086,7 +10008,7 @@
       <c r="G95" s="7" t="n">
         <v>27</v>
       </c>
-      <c r="H95" s="0" t="n">
+      <c r="H95" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10109,7 +10031,7 @@
       <c r="G96" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="H96" s="0" t="n">
+      <c r="H96" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10132,7 +10054,7 @@
       <c r="G97" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="H97" s="0" t="n">
+      <c r="H97" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10155,7 +10077,7 @@
       <c r="G98" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="H98" s="0" t="n">
+      <c r="H98" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10178,7 +10100,7 @@
       <c r="G99" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="H99" s="0" t="n">
+      <c r="H99" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10201,7 +10123,7 @@
       <c r="G100" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="H100" s="0" t="n">
+      <c r="H100" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10224,7 +10146,7 @@
       <c r="G101" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="H101" s="0" t="n">
+      <c r="H101" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10247,7 +10169,7 @@
       <c r="G102" s="7" t="n">
         <v>27</v>
       </c>
-      <c r="H102" s="0" t="n">
+      <c r="H102" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10270,7 +10192,7 @@
       <c r="G103" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="H103" s="0" t="n">
+      <c r="H103" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10293,7 +10215,7 @@
       <c r="G104" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="H104" s="0" t="n">
+      <c r="H104" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10316,7 +10238,7 @@
       <c r="G105" s="7" t="n">
         <v>27</v>
       </c>
-      <c r="H105" s="0" t="n">
+      <c r="H105" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10339,7 +10261,7 @@
       <c r="G106" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="H106" s="0" t="n">
+      <c r="H106" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10362,7 +10284,7 @@
       <c r="G107" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="H107" s="0" t="n">
+      <c r="H107" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10385,7 +10307,7 @@
       <c r="G108" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="H108" s="0" t="n">
+      <c r="H108" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10408,7 +10330,7 @@
       <c r="G109" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="H109" s="0" t="n">
+      <c r="H109" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10431,7 +10353,7 @@
       <c r="G110" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="H110" s="0" t="n">
+      <c r="H110" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10454,7 +10376,7 @@
       <c r="G111" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="H111" s="0" t="n">
+      <c r="H111" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10477,7 +10399,7 @@
       <c r="G112" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="H112" s="0" t="n">
+      <c r="H112" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10500,7 +10422,7 @@
       <c r="G113" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="H113" s="0" t="n">
+      <c r="H113" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10523,7 +10445,7 @@
       <c r="G114" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="H114" s="0" t="n">
+      <c r="H114" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10546,7 +10468,7 @@
       <c r="G115" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="H115" s="0" t="n">
+      <c r="H115" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10569,7 +10491,7 @@
       <c r="G116" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="H116" s="0" t="n">
+      <c r="H116" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10592,7 +10514,7 @@
       <c r="G117" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="H117" s="0" t="n">
+      <c r="H117" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10615,7 +10537,7 @@
       <c r="G118" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="H118" s="0" t="n">
+      <c r="H118" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -10638,7 +10560,7 @@
       <c r="G119" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="H119" s="0" t="n">
+      <c r="H119" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -10661,7 +10583,7 @@
       <c r="G120" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H120" s="0" t="n">
+      <c r="H120" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -10684,7 +10606,7 @@
       <c r="G121" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="H121" s="0" t="n">
+      <c r="H121" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -10707,7 +10629,7 @@
       <c r="G122" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="H122" s="0" t="n">
+      <c r="H122" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -10730,7 +10652,7 @@
       <c r="G123" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="H123" s="0" t="n">
+      <c r="H123" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -10753,7 +10675,7 @@
       <c r="G124" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="H124" s="0" t="n">
+      <c r="H124" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -10776,7 +10698,7 @@
       <c r="G125" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="H125" s="0" t="n">
+      <c r="H125" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -10799,7 +10721,7 @@
       <c r="G126" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="H126" s="0" t="n">
+      <c r="H126" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -10822,7 +10744,7 @@
       <c r="G127" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="H127" s="0" t="n">
+      <c r="H127" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -10845,7 +10767,7 @@
       <c r="G128" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="H128" s="0" t="n">
+      <c r="H128" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -10868,7 +10790,7 @@
       <c r="G129" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="H129" s="0" t="n">
+      <c r="H129" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -10891,7 +10813,7 @@
       <c r="G130" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="H130" s="0" t="n">
+      <c r="H130" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -10914,7 +10836,7 @@
       <c r="G131" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="H131" s="0" t="n">
+      <c r="H131" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -10937,7 +10859,7 @@
       <c r="G132" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="H132" s="0" t="n">
+      <c r="H132" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -10960,7 +10882,7 @@
       <c r="G133" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="H133" s="0" t="n">
+      <c r="H133" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -10983,7 +10905,7 @@
       <c r="G134" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="H134" s="0" t="n">
+      <c r="H134" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -11006,7 +10928,7 @@
       <c r="G135" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="H135" s="0" t="n">
+      <c r="H135" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -11029,7 +10951,7 @@
       <c r="G136" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="H136" s="0" t="n">
+      <c r="H136" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -11052,7 +10974,7 @@
       <c r="G137" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="H137" s="0" t="n">
+      <c r="H137" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -11075,7 +10997,7 @@
       <c r="G138" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H138" s="0" t="n">
+      <c r="H138" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -11098,7 +11020,7 @@
       <c r="G139" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="H139" s="0" t="n">
+      <c r="H139" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -11121,7 +11043,7 @@
       <c r="G140" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="H140" s="0" t="n">
+      <c r="H140" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -11144,7 +11066,7 @@
       <c r="G141" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="H141" s="0" t="n">
+      <c r="H141" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -11167,7 +11089,7 @@
       <c r="G142" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="H142" s="0" t="n">
+      <c r="H142" s="1" t="n">
         <v>9</v>
       </c>
     </row>
@@ -11190,7 +11112,7 @@
       <c r="G143" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="H143" s="0" t="n">
+      <c r="H143" s="1" t="n">
         <v>9</v>
       </c>
     </row>
@@ -11213,7 +11135,7 @@
       <c r="G144" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="H144" s="0" t="n">
+      <c r="H144" s="1" t="n">
         <v>9</v>
       </c>
     </row>
@@ -11236,7 +11158,7 @@
       <c r="G145" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="H145" s="0" t="n">
+      <c r="H145" s="1" t="n">
         <v>9</v>
       </c>
     </row>
@@ -11259,7 +11181,7 @@
       <c r="G146" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="H146" s="0" t="n">
+      <c r="H146" s="1" t="n">
         <v>9</v>
       </c>
     </row>
@@ -11282,7 +11204,7 @@
       <c r="G147" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="H147" s="0" t="n">
+      <c r="H147" s="1" t="n">
         <v>9</v>
       </c>
     </row>
@@ -11305,7 +11227,7 @@
       <c r="G148" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="H148" s="0" t="n">
+      <c r="H148" s="1" t="n">
         <v>9</v>
       </c>
     </row>
@@ -11328,7 +11250,7 @@
       <c r="G149" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="H149" s="0" t="n">
+      <c r="H149" s="1" t="n">
         <v>9</v>
       </c>
     </row>
@@ -11351,7 +11273,7 @@
       <c r="G150" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="H150" s="0" t="n">
+      <c r="H150" s="1" t="n">
         <v>9</v>
       </c>
     </row>
@@ -11374,7 +11296,7 @@
       <c r="G151" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="H151" s="0" t="n">
+      <c r="H151" s="1" t="n">
         <v>9</v>
       </c>
     </row>
@@ -11397,7 +11319,7 @@
       <c r="G152" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="H152" s="0" t="n">
+      <c r="H152" s="1" t="n">
         <v>9</v>
       </c>
     </row>
@@ -11504,7 +11426,7 @@
       <c r="G159" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="H159" s="0" t="n">
+      <c r="H159" s="1" t="n">
         <v>11</v>
       </c>
     </row>
@@ -11527,7 +11449,7 @@
       <c r="G160" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="H160" s="0" t="n">
+      <c r="H160" s="1" t="n">
         <v>11</v>
       </c>
     </row>
@@ -11550,7 +11472,7 @@
       <c r="G161" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="H161" s="0" t="n">
+      <c r="H161" s="1" t="n">
         <v>11</v>
       </c>
     </row>
@@ -11573,7 +11495,7 @@
       <c r="G162" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="H162" s="0" t="n">
+      <c r="H162" s="1" t="n">
         <v>11</v>
       </c>
     </row>
@@ -11596,7 +11518,7 @@
       <c r="G163" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="H163" s="0" t="n">
+      <c r="H163" s="1" t="n">
         <v>11</v>
       </c>
     </row>
@@ -11619,7 +11541,7 @@
       <c r="G164" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="H164" s="0" t="n">
+      <c r="H164" s="1" t="n">
         <v>11</v>
       </c>
     </row>
@@ -11642,7 +11564,7 @@
       <c r="G165" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="H165" s="0" t="n">
+      <c r="H165" s="1" t="n">
         <v>11</v>
       </c>
     </row>
@@ -11665,7 +11587,7 @@
       <c r="G166" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="H166" s="0" t="n">
+      <c r="H166" s="1" t="n">
         <v>11</v>
       </c>
     </row>
@@ -11688,7 +11610,7 @@
       <c r="G167" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="H167" s="0" t="n">
+      <c r="H167" s="1" t="n">
         <v>11</v>
       </c>
     </row>
@@ -11711,7 +11633,7 @@
       <c r="G168" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="H168" s="0" t="n">
+      <c r="H168" s="1" t="n">
         <v>11</v>
       </c>
     </row>
@@ -11734,7 +11656,7 @@
       <c r="G169" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="H169" s="0" t="n">
+      <c r="H169" s="1" t="n">
         <v>11</v>
       </c>
     </row>
@@ -11757,7 +11679,7 @@
       <c r="G170" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H170" s="0" t="n">
+      <c r="H170" s="1" t="n">
         <v>11</v>
       </c>
     </row>
@@ -11780,7 +11702,7 @@
       <c r="G171" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="H171" s="0" t="n">
+      <c r="H171" s="1" t="n">
         <v>12</v>
       </c>
     </row>
@@ -11803,7 +11725,7 @@
       <c r="G172" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="H172" s="0" t="n">
+      <c r="H172" s="1" t="n">
         <v>12</v>
       </c>
     </row>
@@ -11826,7 +11748,7 @@
       <c r="G173" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="H173" s="0" t="n">
+      <c r="H173" s="1" t="n">
         <v>12</v>
       </c>
     </row>
@@ -11849,7 +11771,7 @@
       <c r="G174" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="H174" s="0" t="n">
+      <c r="H174" s="1" t="n">
         <v>12</v>
       </c>
     </row>
@@ -11872,7 +11794,7 @@
       <c r="G175" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="H175" s="0" t="n">
+      <c r="H175" s="1" t="n">
         <v>12</v>
       </c>
     </row>
@@ -11895,7 +11817,7 @@
       <c r="G176" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="H176" s="0" t="n">
+      <c r="H176" s="1" t="n">
         <v>12</v>
       </c>
     </row>
@@ -11918,7 +11840,7 @@
       <c r="G177" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="H177" s="0" t="n">
+      <c r="H177" s="1" t="n">
         <v>12</v>
       </c>
     </row>
@@ -11941,7 +11863,7 @@
       <c r="G178" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="H178" s="0" t="n">
+      <c r="H178" s="1" t="n">
         <v>12</v>
       </c>
     </row>
@@ -11964,7 +11886,7 @@
       <c r="G179" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="H179" s="0" t="n">
+      <c r="H179" s="1" t="n">
         <v>12</v>
       </c>
     </row>
@@ -11987,7 +11909,7 @@
       <c r="G180" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="H180" s="0" t="n">
+      <c r="H180" s="1" t="n">
         <v>12</v>
       </c>
     </row>
@@ -12010,7 +11932,7 @@
       <c r="G181" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="H181" s="0" t="n">
+      <c r="H181" s="1" t="n">
         <v>12</v>
       </c>
     </row>
@@ -12033,7 +11955,7 @@
       <c r="G182" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="H182" s="0" t="n">
+      <c r="H182" s="1" t="n">
         <v>12</v>
       </c>
     </row>
@@ -12056,7 +11978,7 @@
       <c r="G183" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="H183" s="0" t="n">
+      <c r="H183" s="1" t="n">
         <v>12</v>
       </c>
     </row>
@@ -12079,7 +12001,7 @@
       <c r="G184" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="H184" s="0" t="n">
+      <c r="H184" s="1" t="n">
         <v>13</v>
       </c>
     </row>
@@ -12102,7 +12024,7 @@
       <c r="G185" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="H185" s="0" t="n">
+      <c r="H185" s="1" t="n">
         <v>13</v>
       </c>
     </row>
@@ -12125,7 +12047,7 @@
       <c r="G186" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="H186" s="0" t="n">
+      <c r="H186" s="1" t="n">
         <v>13</v>
       </c>
     </row>
@@ -12148,7 +12070,7 @@
       <c r="G187" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="H187" s="0" t="n">
+      <c r="H187" s="1" t="n">
         <v>13</v>
       </c>
     </row>
@@ -12171,7 +12093,7 @@
       <c r="G188" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="H188" s="0" t="n">
+      <c r="H188" s="1" t="n">
         <v>13</v>
       </c>
     </row>
@@ -12194,7 +12116,7 @@
       <c r="G189" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="H189" s="0" t="n">
+      <c r="H189" s="1" t="n">
         <v>13</v>
       </c>
     </row>
@@ -12217,7 +12139,7 @@
       <c r="G190" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="H190" s="0" t="n">
+      <c r="H190" s="1" t="n">
         <v>13</v>
       </c>
     </row>
@@ -12240,7 +12162,7 @@
       <c r="G191" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="H191" s="0" t="n">
+      <c r="H191" s="1" t="n">
         <v>13</v>
       </c>
     </row>
@@ -12263,7 +12185,7 @@
       <c r="G192" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="H192" s="0" t="n">
+      <c r="H192" s="1" t="n">
         <v>13</v>
       </c>
     </row>
@@ -12286,7 +12208,7 @@
       <c r="G193" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="H193" s="0" t="n">
+      <c r="H193" s="1" t="n">
         <v>13</v>
       </c>
     </row>
@@ -12309,7 +12231,7 @@
       <c r="G194" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="H194" s="0" t="n">
+      <c r="H194" s="1" t="n">
         <v>13</v>
       </c>
     </row>
@@ -12332,7 +12254,7 @@
       <c r="G195" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="H195" s="0" t="n">
+      <c r="H195" s="1" t="n">
         <v>14</v>
       </c>
     </row>
@@ -12355,7 +12277,7 @@
       <c r="G196" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="H196" s="0" t="n">
+      <c r="H196" s="1" t="n">
         <v>14</v>
       </c>
     </row>
@@ -12378,7 +12300,7 @@
       <c r="G197" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="H197" s="0" t="n">
+      <c r="H197" s="1" t="n">
         <v>14</v>
       </c>
     </row>
@@ -12401,7 +12323,7 @@
       <c r="G198" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="H198" s="0" t="n">
+      <c r="H198" s="1" t="n">
         <v>14</v>
       </c>
     </row>
@@ -12424,7 +12346,7 @@
       <c r="G199" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="H199" s="0" t="n">
+      <c r="H199" s="1" t="n">
         <v>14</v>
       </c>
     </row>
@@ -12447,7 +12369,7 @@
       <c r="G200" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="H200" s="0" t="n">
+      <c r="H200" s="1" t="n">
         <v>14</v>
       </c>
     </row>
@@ -12470,7 +12392,7 @@
       <c r="G201" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="H201" s="0" t="n">
+      <c r="H201" s="1" t="n">
         <v>14</v>
       </c>
     </row>
@@ -12493,7 +12415,7 @@
       <c r="G202" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="H202" s="0" t="n">
+      <c r="H202" s="1" t="n">
         <v>14</v>
       </c>
     </row>
@@ -12516,7 +12438,7 @@
       <c r="G203" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="H203" s="0" t="n">
+      <c r="H203" s="1" t="n">
         <v>14</v>
       </c>
     </row>
@@ -12539,7 +12461,7 @@
       <c r="G204" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="H204" s="0" t="n">
+      <c r="H204" s="1" t="n">
         <v>14</v>
       </c>
     </row>
@@ -12562,7 +12484,7 @@
       <c r="G205" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H205" s="0" t="n">
+      <c r="H205" s="1" t="n">
         <v>14</v>
       </c>
     </row>
@@ -12585,7 +12507,7 @@
       <c r="G206" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="H206" s="0" t="n">
+      <c r="H206" s="1" t="n">
         <v>14</v>
       </c>
     </row>
@@ -12608,7 +12530,7 @@
       <c r="G207" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="H207" s="0" t="n">
+      <c r="H207" s="1" t="n">
         <v>14</v>
       </c>
     </row>
@@ -12631,7 +12553,7 @@
       <c r="G208" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="H208" s="0" t="n">
+      <c r="H208" s="1" t="n">
         <v>14</v>
       </c>
     </row>
@@ -12654,7 +12576,7 @@
       <c r="G209" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="H209" s="0" t="n">
+      <c r="H209" s="1" t="n">
         <v>14</v>
       </c>
     </row>
@@ -12677,7 +12599,7 @@
       <c r="G210" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="H210" s="0" t="n">
+      <c r="H210" s="1" t="n">
         <v>14</v>
       </c>
     </row>
@@ -12700,7 +12622,7 @@
       <c r="G211" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="H211" s="0" t="n">
+      <c r="H211" s="1" t="n">
         <v>15</v>
       </c>
     </row>
@@ -12723,7 +12645,7 @@
       <c r="G212" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="H212" s="0" t="n">
+      <c r="H212" s="1" t="n">
         <v>15</v>
       </c>
     </row>
@@ -12746,7 +12668,7 @@
       <c r="G213" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="H213" s="0" t="n">
+      <c r="H213" s="1" t="n">
         <v>15</v>
       </c>
     </row>
@@ -12769,7 +12691,7 @@
       <c r="G214" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="H214" s="0" t="n">
+      <c r="H214" s="1" t="n">
         <v>15</v>
       </c>
     </row>
@@ -12792,7 +12714,7 @@
       <c r="G215" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="H215" s="0" t="n">
+      <c r="H215" s="1" t="n">
         <v>15</v>
       </c>
     </row>
@@ -12815,7 +12737,7 @@
       <c r="G216" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="H216" s="0" t="n">
+      <c r="H216" s="1" t="n">
         <v>15</v>
       </c>
     </row>
@@ -12838,7 +12760,7 @@
       <c r="G217" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H217" s="0" t="n">
+      <c r="H217" s="1" t="n">
         <v>15</v>
       </c>
     </row>
@@ -12861,7 +12783,7 @@
       <c r="G218" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="H218" s="0" t="n">
+      <c r="H218" s="1" t="n">
         <v>15</v>
       </c>
     </row>
@@ -12884,7 +12806,7 @@
       <c r="G219" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="H219" s="0" t="n">
+      <c r="H219" s="1" t="n">
         <v>15</v>
       </c>
     </row>
@@ -12907,7 +12829,7 @@
       <c r="G220" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="H220" s="0" t="n">
+      <c r="H220" s="1" t="n">
         <v>15</v>
       </c>
     </row>
@@ -12930,7 +12852,7 @@
       <c r="G221" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="H221" s="0" t="n">
+      <c r="H221" s="1" t="n">
         <v>15</v>
       </c>
     </row>
@@ -12953,7 +12875,7 @@
       <c r="G222" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="H222" s="0" t="n">
+      <c r="H222" s="1" t="n">
         <v>15</v>
       </c>
     </row>
@@ -12976,33 +12898,29 @@
       <c r="G223" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="H223" s="0" t="n">
+      <c r="H223" s="1" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B224" s="0"/>
-      <c r="C224" s="0"/>
       <c r="F224" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G224" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="H224" s="0" t="n">
+      <c r="H224" s="1" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B225" s="0"/>
-      <c r="C225" s="0"/>
       <c r="F225" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G225" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="H225" s="0" t="n">
+      <c r="H225" s="1" t="n">
         <v>15</v>
       </c>
     </row>
@@ -13025,7 +12943,7 @@
       <c r="G226" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="H226" s="0" t="n">
+      <c r="H226" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -13048,7 +12966,7 @@
       <c r="G227" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="H227" s="0" t="n">
+      <c r="H227" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -13071,7 +12989,7 @@
       <c r="G228" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="H228" s="0" t="n">
+      <c r="H228" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -13094,7 +13012,7 @@
       <c r="G229" s="7" t="n">
         <v>25</v>
       </c>
-      <c r="H229" s="0" t="n">
+      <c r="H229" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -13117,7 +13035,7 @@
       <c r="G230" s="7" t="n">
         <v>22</v>
       </c>
-      <c r="H230" s="0" t="n">
+      <c r="H230" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -13140,7 +13058,7 @@
       <c r="G231" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="H231" s="0" t="n">
+      <c r="H231" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -13163,7 +13081,7 @@
       <c r="G232" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="H232" s="0" t="n">
+      <c r="H232" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -13186,7 +13104,7 @@
       <c r="G233" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="H233" s="0" t="n">
+      <c r="H233" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -13209,7 +13127,7 @@
       <c r="G234" s="7" t="n">
         <v>33</v>
       </c>
-      <c r="H234" s="0" t="n">
+      <c r="H234" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -13232,7 +13150,7 @@
       <c r="G235" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="H235" s="0" t="n">
+      <c r="H235" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -13255,7 +13173,7 @@
       <c r="G236" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="H236" s="0" t="n">
+      <c r="H236" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -13278,7 +13196,7 @@
       <c r="G237" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="H237" s="0" t="n">
+      <c r="H237" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -13301,7 +13219,7 @@
       <c r="G238" s="7" t="n">
         <v>32</v>
       </c>
-      <c r="H238" s="0" t="n">
+      <c r="H238" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -13324,7 +13242,7 @@
       <c r="G239" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="H239" s="0" t="n">
+      <c r="H239" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -13347,7 +13265,7 @@
       <c r="G240" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="H240" s="0" t="n">
+      <c r="H240" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13370,7 +13288,7 @@
       <c r="G241" s="7" t="n">
         <v>28</v>
       </c>
-      <c r="H241" s="0" t="n">
+      <c r="H241" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13393,7 +13311,7 @@
       <c r="G242" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="H242" s="0" t="n">
+      <c r="H242" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13416,7 +13334,7 @@
       <c r="G243" s="7" t="n">
         <v>25</v>
       </c>
-      <c r="H243" s="0" t="n">
+      <c r="H243" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13439,7 +13357,7 @@
       <c r="G244" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="H244" s="0" t="n">
+      <c r="H244" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13462,7 +13380,7 @@
       <c r="G245" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="H245" s="0" t="n">
+      <c r="H245" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13485,7 +13403,7 @@
       <c r="G246" s="7" t="n">
         <v>33</v>
       </c>
-      <c r="H246" s="0" t="n">
+      <c r="H246" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13508,7 +13426,7 @@
       <c r="G247" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="H247" s="0" t="n">
+      <c r="H247" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13531,7 +13449,7 @@
       <c r="G248" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="H248" s="0" t="n">
+      <c r="H248" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13554,7 +13472,7 @@
       <c r="G249" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="H249" s="0" t="n">
+      <c r="H249" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13577,7 +13495,7 @@
       <c r="G250" s="7" t="n">
         <v>32</v>
       </c>
-      <c r="H250" s="0" t="n">
+      <c r="H250" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13600,7 +13518,7 @@
       <c r="G251" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="H251" s="0" t="n">
+      <c r="H251" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13623,7 +13541,7 @@
       <c r="G252" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="H252" s="0" t="n">
+      <c r="H252" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -13646,7 +13564,7 @@
       <c r="G253" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="H253" s="0" t="n">
+      <c r="H253" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -13669,7 +13587,7 @@
       <c r="G254" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="H254" s="0" t="n">
+      <c r="H254" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -13692,7 +13610,7 @@
       <c r="G255" s="7" t="n">
         <v>27</v>
       </c>
-      <c r="H255" s="0" t="n">
+      <c r="H255" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -13715,7 +13633,7 @@
       <c r="G256" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="H256" s="0" t="n">
+      <c r="H256" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -13738,7 +13656,7 @@
       <c r="G257" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="H257" s="0" t="n">
+      <c r="H257" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -13761,7 +13679,7 @@
       <c r="G258" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="H258" s="0" t="n">
+      <c r="H258" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -13784,7 +13702,7 @@
       <c r="G259" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="H259" s="0" t="n">
+      <c r="H259" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -13807,7 +13725,7 @@
       <c r="G260" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="H260" s="0" t="n">
+      <c r="H260" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -13830,7 +13748,7 @@
       <c r="G261" s="7" t="n">
         <v>25</v>
       </c>
-      <c r="H261" s="0" t="n">
+      <c r="H261" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -13853,7 +13771,7 @@
       <c r="G262" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="H262" s="0" t="n">
+      <c r="H262" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -13876,7 +13794,7 @@
       <c r="G263" s="7" t="n">
         <v>60</v>
       </c>
-      <c r="H263" s="0" t="n">
+      <c r="H263" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -13899,7 +13817,7 @@
       <c r="G264" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="H264" s="0" t="n">
+      <c r="H264" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -13922,7 +13840,7 @@
       <c r="G265" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="H265" s="0" t="n">
+      <c r="H265" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -13945,7 +13863,7 @@
       <c r="G266" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="H266" s="0" t="n">
+      <c r="H266" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -13968,7 +13886,7 @@
       <c r="G267" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="H267" s="0" t="n">
+      <c r="H267" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -13991,7 +13909,7 @@
       <c r="G268" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="H268" s="0" t="n">
+      <c r="H268" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -14014,7 +13932,7 @@
       <c r="G269" s="7" t="n">
         <v>22</v>
       </c>
-      <c r="H269" s="0" t="n">
+      <c r="H269" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -14037,7 +13955,7 @@
       <c r="G270" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="H270" s="0" t="n">
+      <c r="H270" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -14060,7 +13978,7 @@
       <c r="G271" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="H271" s="0" t="n">
+      <c r="H271" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -14083,7 +14001,7 @@
       <c r="G272" s="7" t="n">
         <v>31</v>
       </c>
-      <c r="H272" s="0" t="n">
+      <c r="H272" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -14106,7 +14024,7 @@
       <c r="G273" s="7" t="n">
         <v>27</v>
       </c>
-      <c r="H273" s="0" t="n">
+      <c r="H273" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -14129,7 +14047,7 @@
       <c r="G274" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="H274" s="0" t="n">
+      <c r="H274" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -14152,7 +14070,7 @@
       <c r="G275" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="H275" s="0" t="n">
+      <c r="H275" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -14175,7 +14093,7 @@
       <c r="G276" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="H276" s="0" t="n">
+      <c r="H276" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -14198,7 +14116,7 @@
       <c r="G277" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="H277" s="0" t="n">
+      <c r="H277" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -14221,7 +14139,7 @@
       <c r="G278" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="H278" s="0" t="n">
+      <c r="H278" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -14244,7 +14162,7 @@
       <c r="G279" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="H279" s="0" t="n">
+      <c r="H279" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -14267,7 +14185,7 @@
       <c r="G280" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="H280" s="0" t="n">
+      <c r="H280" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -14290,7 +14208,7 @@
       <c r="G281" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="H281" s="0" t="n">
+      <c r="H281" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -14313,7 +14231,7 @@
       <c r="G282" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="H282" s="0" t="n">
+      <c r="H282" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -14336,7 +14254,7 @@
       <c r="G283" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="H283" s="0" t="n">
+      <c r="H283" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -14359,7 +14277,7 @@
       <c r="G284" s="7" t="n">
         <v>36</v>
       </c>
-      <c r="H284" s="0" t="n">
+      <c r="H284" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -14519,97 +14437,85 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D226:D1048576 D1:D63 G37 G19 D90:D223">
-    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G18 G21:G91 G286:G1048576 G93:G105 G160:G225">
-    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D226:D1048576 D1:D63 G1:G19 G286:G1048576 G21:G105 G160:G225 D90:D223">
-    <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:G89">
-    <cfRule type="cellIs" priority="5" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="5" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>50</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21:G89">
-    <cfRule type="cellIs" priority="6" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="6" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>40</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21:G89">
-    <cfRule type="cellIs" priority="7" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="7" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>50</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21:G89">
-    <cfRule type="cellIs" priority="8" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="8" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G89">
-    <cfRule type="cellIs" priority="9" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="9" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>50</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20:G89">
-    <cfRule type="cellIs" priority="10" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="10" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37:G89 G22:G36">
-    <cfRule type="cellIs" priority="11" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="11" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>50</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G37:G89 G22:G36">
-    <cfRule type="cellIs" priority="12" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="12" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G154:G158 G106:G128 G130:G152">
-    <cfRule type="cellIs" priority="13" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="13" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>50</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G154:G158 G106:G128 G130:G152">
-    <cfRule type="cellIs" priority="14" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="14" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G153">
-    <cfRule type="cellIs" priority="15" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="15" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G153">
-    <cfRule type="cellIs" priority="16" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="16" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G129">
-    <cfRule type="cellIs" priority="17" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="17" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G129">
-    <cfRule type="cellIs" priority="18" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="18" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G159:G225">
-    <cfRule type="cellIs" priority="19" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="19" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D226:E329 F226:G284 G286:G329 F286:F329">
-    <cfRule type="cellIs" priority="20" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="20" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14630,13 +14536,13 @@
   </sheetPr>
   <dimension ref="A1:C278"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A257" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A220" activeCellId="1" sqref="I:I A220"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A257" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A220" activeCellId="1" sqref="A1:H21 A220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17713,10 +17619,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I:I"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="A1:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17725,251 +17631,338 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="23.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="32.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="22.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="1" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="12.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" s="10" t="n">
+        <v>284</v>
+      </c>
+      <c r="D2" s="10" t="n">
+        <v>358</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <f aca="false">D2-C2</f>
+        <v>74</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <f aca="false">F2-E2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C3" s="10" t="n">
+        <v>268</v>
+      </c>
+      <c r="D3" s="10" t="n">
+        <v>360</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <f aca="false">D3-C3</f>
+        <v>92</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <f aca="false">F3-E3</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C4" s="10" t="n">
+        <v>304</v>
+      </c>
+      <c r="D4" s="10" t="n">
+        <v>312</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <f aca="false">D4-C4</f>
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <f aca="false">F4-E4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C5" s="10" t="n">
+        <v>206</v>
+      </c>
+      <c r="D5" s="10" t="n">
+        <v>351</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <f aca="false">D5-C5</f>
+        <v>145</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <f aca="false">F5-E5</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C6" s="10" t="n">
+        <v>215</v>
+      </c>
+      <c r="D6" s="10" t="n">
+        <v>304</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <f aca="false">D6-C6</f>
+        <v>89</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <f aca="false">F6-E6</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C7" s="10" t="n">
         <v>392</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D7" s="10" t="n">
         <v>305</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E7" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F7" s="1" t="n">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="n">
+      <c r="G7" s="1" t="n">
+        <f aca="false">D7-C7</f>
+        <v>-87</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <f aca="false">F7-E7</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C8" s="10" t="n">
         <v>292</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D8" s="10" t="n">
         <v>348</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E8" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F8" s="1" t="n">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="n">
+      <c r="G8" s="1" t="n">
+        <f aca="false">D8-C8</f>
+        <v>56</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <f aca="false">F8-E8</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C9" s="10" t="n">
         <v>186</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D9" s="10" t="n">
         <v>277</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" s="8" t="n">
-        <v>134</v>
-      </c>
-      <c r="D5" s="8" t="n">
-        <v>214</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="C6" s="8" t="n">
-        <v>143</v>
-      </c>
-      <c r="D6" s="8" t="n">
-        <v>179</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" s="8" t="n">
-        <v>231</v>
-      </c>
-      <c r="D7" s="8" t="n">
-        <v>241</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" s="8" t="n">
-        <v>186</v>
-      </c>
-      <c r="D8" s="8" t="n">
-        <v>273</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="C9" s="8" t="n">
-        <v>155</v>
-      </c>
-      <c r="D9" s="8" t="n">
-        <v>160</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F9" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <f aca="false">D9-C9</f>
+        <v>91</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <f aca="false">F9-E9</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10" t="n">
+        <v>134</v>
+      </c>
+      <c r="D10" s="10" t="n">
+        <v>214</v>
+      </c>
+      <c r="E10" s="1" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" s="8" t="n">
-        <v>172</v>
-      </c>
-      <c r="D10" s="8" t="n">
-        <v>280</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>12</v>
-      </c>
       <c r="F10" s="1" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <f aca="false">D10-C10</f>
+        <v>80</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <f aca="false">F10-E10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" s="8" t="n">
-        <v>246</v>
-      </c>
-      <c r="D11" s="8" t="n">
-        <v>137</v>
+        <v>9</v>
+      </c>
+      <c r="C11" s="10" t="n">
+        <v>143</v>
+      </c>
+      <c r="D11" s="10" t="n">
+        <v>179</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G11" s="1" t="n">
+        <f aca="false">D11-C11</f>
+        <v>36</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <f aca="false">F11-E11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="10" t="n">
         <v>193</v>
       </c>
-      <c r="D12" s="8" t="n">
+      <c r="D12" s="10" t="n">
         <v>299</v>
       </c>
       <c r="E12" s="1" t="n">
@@ -17978,18 +17971,26 @@
       <c r="F12" s="1" t="n">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G12" s="1" t="n">
+        <f aca="false">D12-C12</f>
+        <v>106</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <f aca="false">F12-E12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C13" s="8" t="n">
+      <c r="C13" s="10" t="n">
         <v>254</v>
       </c>
-      <c r="D13" s="8" t="n">
+      <c r="D13" s="10" t="n">
         <v>326</v>
       </c>
       <c r="E13" s="1" t="n">
@@ -17998,18 +17999,26 @@
       <c r="F13" s="1" t="n">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G13" s="1" t="n">
+        <f aca="false">D13-C13</f>
+        <v>72</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <f aca="false">F13-E13</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C14" s="8" t="n">
+      <c r="C14" s="10" t="n">
         <v>135</v>
       </c>
-      <c r="D14" s="8" t="n">
+      <c r="D14" s="10" t="n">
         <v>220</v>
       </c>
       <c r="E14" s="1" t="n">
@@ -18018,18 +18027,26 @@
       <c r="F14" s="1" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G14" s="1" t="n">
+        <f aca="false">D14-C14</f>
+        <v>85</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <f aca="false">F14-E14</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="C15" s="8" t="n">
+      <c r="C15" s="10" t="n">
         <v>191</v>
       </c>
-      <c r="D15" s="8" t="n">
+      <c r="D15" s="10" t="n">
         <v>390</v>
       </c>
       <c r="E15" s="1" t="n">
@@ -18038,18 +18055,26 @@
       <c r="F15" s="1" t="n">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G15" s="1" t="n">
+        <f aca="false">D15-C15</f>
+        <v>199</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <f aca="false">F15-E15</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C16" s="8" t="n">
+      <c r="C16" s="10" t="n">
         <v>170</v>
       </c>
-      <c r="D16" s="8" t="n">
+      <c r="D16" s="10" t="n">
         <v>339</v>
       </c>
       <c r="E16" s="1" t="n">
@@ -18058,105 +18083,153 @@
       <c r="F16" s="1" t="n">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="1" t="n">
+        <f aca="false">D16-C16</f>
+        <v>169</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <f aca="false">F16-E16</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="C17" s="8" t="n">
-        <v>284</v>
-      </c>
-      <c r="D17" s="8" t="n">
-        <v>358</v>
+        <v>2</v>
+      </c>
+      <c r="C17" s="10" t="n">
+        <v>231</v>
+      </c>
+      <c r="D17" s="10" t="n">
+        <v>241</v>
       </c>
       <c r="E17" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="F17" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="F17" s="1" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G17" s="1" t="n">
+        <f aca="false">D17-C17</f>
+        <v>10</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <f aca="false">F17-E17</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="C18" s="8" t="n">
-        <v>268</v>
-      </c>
-      <c r="D18" s="8" t="n">
-        <v>360</v>
+        <v>4</v>
+      </c>
+      <c r="C18" s="10" t="n">
+        <v>186</v>
+      </c>
+      <c r="D18" s="10" t="n">
+        <v>273</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <f aca="false">D18-C18</f>
+        <v>87</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <f aca="false">F18-E18</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="C19" s="8" t="n">
-        <v>304</v>
-      </c>
-      <c r="D19" s="8" t="n">
-        <v>312</v>
+        <v>6</v>
+      </c>
+      <c r="C19" s="10" t="n">
+        <v>155</v>
+      </c>
+      <c r="D19" s="10" t="n">
+        <v>160</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <f aca="false">D19-C19</f>
+        <v>5</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <f aca="false">F19-E19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="C20" s="8" t="n">
-        <v>206</v>
-      </c>
-      <c r="D20" s="8" t="n">
-        <v>351</v>
+        <v>8</v>
+      </c>
+      <c r="C20" s="10" t="n">
+        <v>172</v>
+      </c>
+      <c r="D20" s="10" t="n">
+        <v>280</v>
       </c>
       <c r="E20" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <f aca="false">D20-C20</f>
+        <v>108</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <f aca="false">F20-E20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" s="10" t="n">
+        <v>246</v>
+      </c>
+      <c r="D21" s="10" t="n">
+        <v>137</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="F21" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="F20" s="1" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="C21" s="8" t="n">
-        <v>215</v>
-      </c>
-      <c r="D21" s="8" t="n">
-        <v>304</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="F21" s="1" t="n">
-        <v>19</v>
+      <c r="G21" s="1" t="n">
+        <f aca="false">D21-C21</f>
+        <v>-109</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <f aca="false">F21-E21</f>
+        <v>-3</v>
       </c>
     </row>
   </sheetData>
@@ -18177,8 +18250,8 @@
   </sheetPr>
   <dimension ref="A1:N267"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K28" activeCellId="1" sqref="I:I K28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K28" activeCellId="1" sqref="A1:H21 K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18188,8 +18261,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="28.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="9" width="31.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="23.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="11" width="31.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="19.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="7.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="18.02"/>
@@ -18215,10 +18288,10 @@
       <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -18239,15 +18312,15 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F2" s="10" t="n">
+      <c r="F2" s="11" t="n">
         <f aca="false">(E2-D2)/D2</f>
         <v>-0.638716981132076</v>
       </c>
-      <c r="G2" s="11" t="n">
+      <c r="G2" s="12" t="n">
         <f aca="false">AVERAGE(F2:F15)</f>
         <v>0.245866065561484</v>
       </c>
-      <c r="H2" s="11" t="n">
+      <c r="H2" s="12" t="n">
         <f aca="false">AVERAGE(G2:G63)</f>
         <v>0.306056896443204</v>
       </c>
@@ -18269,12 +18342,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F3" s="10" t="n">
+      <c r="F3" s="11" t="n">
         <f aca="false">(E3-D3)/D3</f>
         <v>-0.202166666666667</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -18293,12 +18366,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F4" s="10" t="n">
+      <c r="F4" s="11" t="n">
         <f aca="false">(E4-D4)/D4</f>
         <v>-0.263538461538462</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -18317,12 +18390,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F5" s="10" t="n">
+      <c r="F5" s="11" t="n">
         <f aca="false">(E5-D5)/D5</f>
         <v>0.9148</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -18341,12 +18414,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F6" s="10" t="n">
+      <c r="F6" s="11" t="n">
         <f aca="false">(E6-D6)/D6</f>
         <v>1.12755555555556</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -18365,12 +18438,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F7" s="10" t="n">
+      <c r="F7" s="11" t="n">
         <f aca="false">(E7-D7)/D7</f>
         <v>0.0637777777777778</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
@@ -18389,12 +18462,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F8" s="10" t="n">
+      <c r="F8" s="11" t="n">
         <f aca="false">(E8-D8)/D8</f>
         <v>0.595666666666667</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -18413,12 +18486,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F9" s="10" t="n">
+      <c r="F9" s="11" t="n">
         <f aca="false">(E9-D9)/D9</f>
         <v>0.9148</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
@@ -18437,12 +18510,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F10" s="10" t="n">
+      <c r="F10" s="11" t="n">
         <f aca="false">(E10-D10)/D10</f>
         <v>0.126352941176471</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
@@ -18461,12 +18534,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F11" s="10" t="n">
+      <c r="F11" s="11" t="n">
         <f aca="false">(E11-D11)/D11</f>
         <v>-0.382322580645161</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
       <c r="I11" s="1" t="s">
         <v>21</v>
       </c>
@@ -18500,12 +18573,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F12" s="10" t="n">
+      <c r="F12" s="11" t="n">
         <f aca="false">(E12-D12)/D12</f>
         <v>-0.0426</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
       <c r="I12" s="1" t="s">
         <v>4</v>
       </c>
@@ -18521,7 +18594,7 @@
       <c r="M12" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="N12" s="10"/>
+      <c r="N12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
@@ -18540,12 +18613,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F13" s="10" t="n">
+      <c r="F13" s="11" t="n">
         <f aca="false">(E13-D13)/D13</f>
         <v>-0.361733333333333</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
       <c r="I13" s="1" t="s">
         <v>6</v>
       </c>
@@ -18561,7 +18634,7 @@
       <c r="M13" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="N13" s="10"/>
+      <c r="N13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
@@ -18580,12 +18653,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F14" s="10" t="n">
+      <c r="F14" s="11" t="n">
         <f aca="false">(E14-D14)/D14</f>
         <v>0.19675</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
       <c r="I14" s="1" t="s">
         <v>7</v>
       </c>
@@ -18601,7 +18674,7 @@
       <c r="M14" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="N14" s="10"/>
+      <c r="N14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
@@ -18620,12 +18693,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F15" s="10" t="n">
+      <c r="F15" s="11" t="n">
         <f aca="false">(E15-D15)/D15</f>
         <v>1.3935</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
       <c r="I15" s="1" t="s">
         <v>8</v>
       </c>
@@ -18641,7 +18714,7 @@
       <c r="M15" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="N15" s="10"/>
+      <c r="N15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
@@ -18660,15 +18733,15 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F16" s="10" t="n">
+      <c r="F16" s="11" t="n">
         <f aca="false">(E16-D16)/D16</f>
         <v>-0.638716981132076</v>
       </c>
-      <c r="G16" s="11" t="n">
+      <c r="G16" s="12" t="n">
         <f aca="false">AVERAGE(F16:F24)</f>
         <v>-0.143461294852119</v>
       </c>
-      <c r="H16" s="11"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
@@ -18687,12 +18760,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F17" s="10" t="n">
+      <c r="F17" s="11" t="n">
         <f aca="false">(E17-D17)/D17</f>
         <v>0.472923076923077</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
@@ -18711,12 +18784,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F18" s="10" t="n">
+      <c r="F18" s="11" t="n">
         <f aca="false">(E18-D18)/D18</f>
         <v>-0.675457627118644</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
@@ -18735,12 +18808,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F19" s="10" t="n">
+      <c r="F19" s="11" t="n">
         <f aca="false">(E19-D19)/D19</f>
         <v>0.595666666666667</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
@@ -18759,12 +18832,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F20" s="10" t="n">
+      <c r="F20" s="11" t="n">
         <f aca="false">(E20-D20)/D20</f>
         <v>-0.202166666666667</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
@@ -18783,12 +18856,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F21" s="10" t="n">
+      <c r="F21" s="11" t="n">
         <f aca="false">(E21-D21)/D21</f>
         <v>-0.419757575757576</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
@@ -18807,12 +18880,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F22" s="10" t="n">
+      <c r="F22" s="11" t="n">
         <f aca="false">(E22-D22)/D22</f>
         <v>0.19675</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
@@ -18831,12 +18904,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F23" s="10" t="n">
+      <c r="F23" s="11" t="n">
         <f aca="false">(E23-D23)/D23</f>
         <v>-0.167478260869565</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
@@ -18855,12 +18928,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F24" s="10" t="n">
+      <c r="F24" s="11" t="n">
         <f aca="false">(E24-D24)/D24</f>
         <v>-0.452914285714286</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
@@ -18879,15 +18952,15 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F25" s="10" t="n">
+      <c r="F25" s="11" t="n">
         <f aca="false">(E25-D25)/D25</f>
         <v>-0.419757575757576</v>
       </c>
-      <c r="G25" s="11" t="n">
+      <c r="G25" s="12" t="n">
         <f aca="false">AVERAGE(F25:F39)</f>
         <v>0.132373766035766</v>
       </c>
-      <c r="H25" s="11"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
@@ -18906,12 +18979,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F26" s="10" t="n">
+      <c r="F26" s="11" t="n">
         <f aca="false">(E26-D26)/D26</f>
         <v>-0.23408</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
@@ -18930,12 +19003,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F27" s="10" t="n">
+      <c r="F27" s="11" t="n">
         <f aca="false">(E27-D27)/D27</f>
         <v>-0.0881904761904762</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
@@ -18954,12 +19027,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F28" s="10" t="n">
+      <c r="F28" s="11" t="n">
         <f aca="false">(E28-D28)/D28</f>
         <v>0.472923076923077</v>
       </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
@@ -18978,12 +19051,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F29" s="10" t="n">
+      <c r="F29" s="11" t="n">
         <f aca="false">(E29-D29)/D29</f>
         <v>0.740727272727273</v>
       </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
@@ -19002,12 +19075,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F30" s="10" t="n">
+      <c r="F30" s="11" t="n">
         <f aca="false">(E30-D30)/D30</f>
         <v>0.19675</v>
       </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
@@ -19026,12 +19099,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F31" s="10" t="n">
+      <c r="F31" s="11" t="n">
         <f aca="false">(E31-D31)/D31</f>
         <v>-0.509025641025641</v>
       </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
@@ -19050,12 +19123,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F32" s="10" t="n">
+      <c r="F32" s="11" t="n">
         <f aca="false">(E32-D32)/D32</f>
         <v>-0.316142857142857</v>
       </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
@@ -19074,12 +19147,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F33" s="10" t="n">
+      <c r="F33" s="11" t="n">
         <f aca="false">(E33-D33)/D33</f>
         <v>0.740727272727273</v>
       </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
@@ -19098,12 +19171,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F34" s="10" t="n">
+      <c r="F34" s="11" t="n">
         <f aca="false">(E34-D34)/D34</f>
         <v>0.367714285714286</v>
       </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
@@ -19122,12 +19195,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F35" s="10" t="n">
+      <c r="F35" s="11" t="n">
         <f aca="false">(E35-D35)/D35</f>
         <v>0.367714285714286</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
@@ -19146,12 +19219,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F36" s="10" t="n">
+      <c r="F36" s="11" t="n">
         <f aca="false">(E36-D36)/D36</f>
         <v>0.595666666666667</v>
       </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
@@ -19170,12 +19243,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F37" s="10" t="n">
+      <c r="F37" s="11" t="n">
         <f aca="false">(E37-D37)/D37</f>
         <v>-0.482486486486487</v>
       </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
@@ -19194,12 +19267,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F38" s="10" t="n">
+      <c r="F38" s="11" t="n">
         <f aca="false">(E38-D38)/D38</f>
         <v>0.276533333333333</v>
       </c>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
@@ -19218,12 +19291,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F39" s="10" t="n">
+      <c r="F39" s="11" t="n">
         <f aca="false">(E39-D39)/D39</f>
         <v>0.276533333333333</v>
       </c>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
@@ -19242,15 +19315,15 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F40" s="10" t="n">
+      <c r="F40" s="11" t="n">
         <f aca="false">(E40-D40)/D40</f>
         <v>-0.532975609756098</v>
       </c>
-      <c r="G40" s="11" t="n">
+      <c r="G40" s="12" t="n">
         <f aca="false">AVERAGE(F40:F50)</f>
         <v>0.383939568612454</v>
       </c>
-      <c r="H40" s="11"/>
+      <c r="H40" s="12"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
@@ -19269,12 +19342,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F41" s="10" t="n">
+      <c r="F41" s="11" t="n">
         <f aca="false">(E41-D41)/D41</f>
         <v>-0.0426</v>
       </c>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
@@ -19293,12 +19366,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F42" s="10" t="n">
+      <c r="F42" s="11" t="n">
         <f aca="false">(E42-D42)/D42</f>
         <v>-0.167478260869565</v>
       </c>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
@@ -19317,12 +19390,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F43" s="10" t="n">
+      <c r="F43" s="11" t="n">
         <f aca="false">(E43-D43)/D43</f>
         <v>0.472923076923077</v>
       </c>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
@@ -19341,12 +19414,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F44" s="10" t="n">
+      <c r="F44" s="11" t="n">
         <f aca="false">(E44-D44)/D44</f>
         <v>0.19675</v>
       </c>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
@@ -19365,12 +19438,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F45" s="10" t="n">
+      <c r="F45" s="11" t="n">
         <f aca="false">(E45-D45)/D45</f>
         <v>2.8296</v>
       </c>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
@@ -19389,12 +19462,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F46" s="10" t="n">
+      <c r="F46" s="11" t="n">
         <f aca="false">(E46-D46)/D46</f>
         <v>-0.290814814814815</v>
       </c>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
@@ -19413,12 +19486,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F47" s="10" t="n">
+      <c r="F47" s="11" t="n">
         <f aca="false">(E47-D47)/D47</f>
         <v>0.126352941176471</v>
       </c>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
@@ -19437,12 +19510,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F48" s="10" t="n">
+      <c r="F48" s="11" t="n">
         <f aca="false">(E48-D48)/D48</f>
         <v>1.3935</v>
       </c>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
@@ -19461,12 +19534,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F49" s="10" t="n">
+      <c r="F49" s="11" t="n">
         <f aca="false">(E49-D49)/D49</f>
         <v>-0.129636363636364</v>
       </c>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
@@ -19485,12 +19558,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F50" s="10" t="n">
+      <c r="F50" s="11" t="n">
         <f aca="false">(E50-D50)/D50</f>
         <v>0.367714285714286</v>
       </c>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
@@ -19509,15 +19582,15 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F51" s="10" t="n">
+      <c r="F51" s="11" t="n">
         <f aca="false">(E51-D51)/D51</f>
         <v>-0.23408</v>
       </c>
-      <c r="G51" s="11" t="n">
+      <c r="G51" s="12" t="n">
         <f aca="false">AVERAGE(F51:F63)</f>
         <v>0.911566376858436</v>
       </c>
-      <c r="H51" s="11"/>
+      <c r="H51" s="12"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
@@ -19536,12 +19609,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F52" s="10" t="n">
+      <c r="F52" s="11" t="n">
         <f aca="false">(E52-D52)/D52</f>
         <v>-0.0426</v>
       </c>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
@@ -19560,12 +19633,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F53" s="10" t="n">
+      <c r="F53" s="11" t="n">
         <f aca="false">(E53-D53)/D53</f>
         <v>-0.436823529411765</v>
       </c>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
@@ -19584,12 +19657,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F54" s="10" t="n">
+      <c r="F54" s="11" t="n">
         <f aca="false">(E54-D54)/D54</f>
         <v>-0.0881904761904762</v>
       </c>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
@@ -19608,12 +19681,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F55" s="10" t="n">
+      <c r="F55" s="11" t="n">
         <f aca="false">(E55-D55)/D55</f>
         <v>-0.401625</v>
       </c>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
@@ -19632,12 +19705,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F56" s="10" t="n">
+      <c r="F56" s="11" t="n">
         <f aca="false">(E56-D56)/D56</f>
         <v>2.8296</v>
       </c>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
@@ -19656,12 +19729,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F57" s="10" t="n">
+      <c r="F57" s="11" t="n">
         <f aca="false">(E57-D57)/D57</f>
         <v>-0.23408</v>
       </c>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
@@ -19680,12 +19753,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F58" s="10" t="n">
+      <c r="F58" s="11" t="n">
         <f aca="false">(E58-D58)/D58</f>
         <v>-0.0426</v>
       </c>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
@@ -19704,12 +19777,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F59" s="10" t="n">
+      <c r="F59" s="11" t="n">
         <f aca="false">(E59-D59)/D59</f>
         <v>1.3935</v>
       </c>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
@@ -19728,12 +19801,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F60" s="10" t="n">
+      <c r="F60" s="11" t="n">
         <f aca="false">(E60-D60)/D60</f>
         <v>1.3935</v>
       </c>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
@@ -19752,12 +19825,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F61" s="10" t="n">
+      <c r="F61" s="11" t="n">
         <f aca="false">(E61-D61)/D61</f>
         <v>3.787</v>
       </c>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
@@ -19776,12 +19849,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F62" s="10" t="n">
+      <c r="F62" s="11" t="n">
         <f aca="false">(E62-D62)/D62</f>
         <v>1.73542857142857</v>
       </c>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
@@ -19800,12 +19873,12 @@
         <f aca="false">$L$12</f>
         <v>19.148</v>
       </c>
-      <c r="F63" s="10" t="n">
+      <c r="F63" s="11" t="n">
         <f aca="false">(E63-D63)/D63</f>
         <v>2.19133333333333</v>
       </c>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
@@ -19824,15 +19897,15 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F64" s="10" t="n">
+      <c r="F64" s="11" t="n">
         <f aca="false">(E64-D64)/D64</f>
         <v>-0.461538461538462</v>
       </c>
-      <c r="G64" s="11" t="n">
+      <c r="G64" s="12" t="n">
         <f aca="false">AVERAGE(F64:F84)</f>
         <v>0.617354118183372</v>
       </c>
-      <c r="H64" s="11" t="n">
+      <c r="H64" s="12" t="n">
         <f aca="false">AVERAGE(G64:G132)</f>
         <v>0.789062077141654</v>
       </c>
@@ -19854,12 +19927,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F65" s="10" t="n">
+      <c r="F65" s="11" t="n">
         <f aca="false">(E65-D65)/D65</f>
         <v>-0.222222222222222</v>
       </c>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
@@ -19878,12 +19951,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F66" s="10" t="n">
+      <c r="F66" s="11" t="n">
         <f aca="false">(E66-D66)/D66</f>
         <v>-0.222222222222222</v>
       </c>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
@@ -19902,12 +19975,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F67" s="10" t="n">
+      <c r="F67" s="11" t="n">
         <f aca="false">(E67-D67)/D67</f>
         <v>0.3125</v>
       </c>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
@@ -19926,12 +19999,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F68" s="10" t="n">
+      <c r="F68" s="11" t="n">
         <f aca="false">(E68-D68)/D68</f>
         <v>1.1</v>
       </c>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
@@ -19950,12 +20023,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F69" s="10" t="n">
+      <c r="F69" s="11" t="n">
         <f aca="false">(E69-D69)/D69</f>
         <v>0</v>
       </c>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
@@ -19974,12 +20047,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F70" s="10" t="n">
+      <c r="F70" s="11" t="n">
         <f aca="false">(E70-D70)/D70</f>
         <v>1.625</v>
       </c>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
@@ -19998,12 +20071,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F71" s="10" t="n">
+      <c r="F71" s="11" t="n">
         <f aca="false">(E71-D71)/D71</f>
         <v>-0.511627906976744</v>
       </c>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
@@ -20022,12 +20095,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F72" s="10" t="n">
+      <c r="F72" s="11" t="n">
         <f aca="false">(E72-D72)/D72</f>
         <v>0.5</v>
       </c>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
@@ -20046,12 +20119,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F73" s="10" t="n">
+      <c r="F73" s="11" t="n">
         <f aca="false">(E73-D73)/D73</f>
         <v>3.2</v>
       </c>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
@@ -20070,12 +20143,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F74" s="10" t="n">
+      <c r="F74" s="11" t="n">
         <f aca="false">(E74-D74)/D74</f>
         <v>0.105263157894737</v>
       </c>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
@@ -20094,12 +20167,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F75" s="10" t="n">
+      <c r="F75" s="11" t="n">
         <f aca="false">(E75-D75)/D75</f>
         <v>0.105263157894737</v>
       </c>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
@@ -20118,12 +20191,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F76" s="10" t="n">
+      <c r="F76" s="11" t="n">
         <f aca="false">(E76-D76)/D76</f>
         <v>0</v>
       </c>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
@@ -20142,12 +20215,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F77" s="10" t="n">
+      <c r="F77" s="11" t="n">
         <f aca="false">(E77-D77)/D77</f>
         <v>-0.16</v>
       </c>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
@@ -20166,12 +20239,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F78" s="10" t="n">
+      <c r="F78" s="11" t="n">
         <f aca="false">(E78-D78)/D78</f>
         <v>0.909090909090909</v>
       </c>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
@@ -20190,12 +20263,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F79" s="10" t="n">
+      <c r="F79" s="11" t="n">
         <f aca="false">(E79-D79)/D79</f>
         <v>4.25</v>
       </c>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
@@ -20214,12 +20287,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F80" s="10" t="n">
+      <c r="F80" s="11" t="n">
         <f aca="false">(E80-D80)/D80</f>
         <v>0.615384615384615</v>
       </c>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
@@ -20238,12 +20311,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F81" s="10" t="n">
+      <c r="F81" s="11" t="n">
         <f aca="false">(E81-D81)/D81</f>
         <v>0.4</v>
       </c>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
@@ -20262,12 +20335,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F82" s="10" t="n">
+      <c r="F82" s="11" t="n">
         <f aca="false">(E82-D82)/D82</f>
         <v>1.625</v>
       </c>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
@@ -20286,12 +20359,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F83" s="10" t="n">
+      <c r="F83" s="11" t="n">
         <f aca="false">(E83-D83)/D83</f>
         <v>-0.16</v>
       </c>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
@@ -20310,12 +20383,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F84" s="10" t="n">
+      <c r="F84" s="11" t="n">
         <f aca="false">(E84-D84)/D84</f>
         <v>-0.0454545454545455</v>
       </c>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
@@ -20334,15 +20407,15 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F85" s="10" t="n">
+      <c r="F85" s="11" t="n">
         <f aca="false">(E85-D85)/D85</f>
         <v>0.5</v>
       </c>
-      <c r="G85" s="11" t="n">
+      <c r="G85" s="12" t="n">
         <f aca="false">AVERAGE(F85:F101)</f>
         <v>0.449886272896654</v>
       </c>
-      <c r="H85" s="11"/>
+      <c r="H85" s="12"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
@@ -20361,12 +20434,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F86" s="10" t="n">
+      <c r="F86" s="11" t="n">
         <f aca="false">(E86-D86)/D86</f>
         <v>0.4</v>
       </c>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
@@ -20385,12 +20458,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F87" s="10" t="n">
+      <c r="F87" s="11" t="n">
         <f aca="false">(E87-D87)/D87</f>
         <v>0.3125</v>
       </c>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
@@ -20409,12 +20482,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F88" s="10" t="n">
+      <c r="F88" s="11" t="n">
         <f aca="false">(E88-D88)/D88</f>
         <v>-0.382352941176471</v>
       </c>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
@@ -20433,12 +20506,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F89" s="10" t="n">
+      <c r="F89" s="11" t="n">
         <f aca="false">(E89-D89)/D89</f>
         <v>0</v>
       </c>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
@@ -20457,12 +20530,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F90" s="10" t="n">
+      <c r="F90" s="11" t="n">
         <f aca="false">(E90-D90)/D90</f>
         <v>0.909090909090909</v>
       </c>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
@@ -20481,12 +20554,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F91" s="10" t="n">
+      <c r="F91" s="11" t="n">
         <f aca="false">(E91-D91)/D91</f>
         <v>-0.25</v>
       </c>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
@@ -20505,12 +20578,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F92" s="10" t="n">
+      <c r="F92" s="11" t="n">
         <f aca="false">(E92-D92)/D92</f>
         <v>1.625</v>
       </c>
-      <c r="G92" s="11"/>
-      <c r="H92" s="11"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
@@ -20529,12 +20602,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F93" s="10" t="n">
+      <c r="F93" s="11" t="n">
         <f aca="false">(E93-D93)/D93</f>
         <v>0.4</v>
       </c>
-      <c r="G93" s="11"/>
-      <c r="H93" s="11"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
@@ -20553,12 +20626,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F94" s="10" t="n">
+      <c r="F94" s="11" t="n">
         <f aca="false">(E94-D94)/D94</f>
         <v>0.75</v>
       </c>
-      <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
@@ -20577,12 +20650,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F95" s="10" t="n">
+      <c r="F95" s="11" t="n">
         <f aca="false">(E95-D95)/D95</f>
         <v>-0.0454545454545455</v>
       </c>
-      <c r="G95" s="11"/>
-      <c r="H95" s="11"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
@@ -20601,12 +20674,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F96" s="10" t="n">
+      <c r="F96" s="11" t="n">
         <f aca="false">(E96-D96)/D96</f>
         <v>0.3125</v>
       </c>
-      <c r="G96" s="11"/>
-      <c r="H96" s="11"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
@@ -20625,12 +20698,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F97" s="10" t="n">
+      <c r="F97" s="11" t="n">
         <f aca="false">(E97-D97)/D97</f>
         <v>2</v>
       </c>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
@@ -20649,12 +20722,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F98" s="10" t="n">
+      <c r="F98" s="11" t="n">
         <f aca="false">(E98-D98)/D98</f>
         <v>-0.192307692307692</v>
       </c>
-      <c r="G98" s="11"/>
-      <c r="H98" s="11"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
@@ -20673,12 +20746,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F99" s="10" t="n">
+      <c r="F99" s="11" t="n">
         <f aca="false">(E99-D99)/D99</f>
         <v>0</v>
       </c>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
@@ -20697,12 +20770,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F100" s="10" t="n">
+      <c r="F100" s="11" t="n">
         <f aca="false">(E100-D100)/D100</f>
         <v>0.4</v>
       </c>
-      <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
@@ -20721,12 +20794,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F101" s="10" t="n">
+      <c r="F101" s="11" t="n">
         <f aca="false">(E101-D101)/D101</f>
         <v>0.909090909090909</v>
       </c>
-      <c r="G101" s="11"/>
-      <c r="H101" s="11"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
@@ -20745,15 +20818,15 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F102" s="10" t="n">
+      <c r="F102" s="11" t="n">
         <f aca="false">(E102-D102)/D102</f>
         <v>2</v>
       </c>
-      <c r="G102" s="11" t="n">
+      <c r="G102" s="12" t="n">
         <f aca="false">AVERAGE(F102:F111)</f>
         <v>0.422545546558704</v>
       </c>
-      <c r="H102" s="11"/>
+      <c r="H102" s="12"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
@@ -20772,12 +20845,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F103" s="10" t="n">
+      <c r="F103" s="11" t="n">
         <f aca="false">(E103-D103)/D103</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="G103" s="11"/>
-      <c r="H103" s="11"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
@@ -20796,12 +20869,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F104" s="10" t="n">
+      <c r="F104" s="11" t="n">
         <f aca="false">(E104-D104)/D104</f>
         <v>1.33333333333333</v>
       </c>
-      <c r="G104" s="11"/>
-      <c r="H104" s="11"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
@@ -20820,12 +20893,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F105" s="10" t="n">
+      <c r="F105" s="11" t="n">
         <f aca="false">(E105-D105)/D105</f>
         <v>0.105263157894737</v>
       </c>
-      <c r="G105" s="11"/>
-      <c r="H105" s="11"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
@@ -20844,12 +20917,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F106" s="10" t="n">
+      <c r="F106" s="11" t="n">
         <f aca="false">(E106-D106)/D106</f>
         <v>-0.192307692307692</v>
       </c>
-      <c r="G106" s="11"/>
-      <c r="H106" s="11"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
@@ -20868,12 +20941,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F107" s="10" t="n">
+      <c r="F107" s="11" t="n">
         <f aca="false">(E107-D107)/D107</f>
         <v>0</v>
       </c>
-      <c r="G107" s="11"/>
-      <c r="H107" s="11"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
@@ -20892,12 +20965,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F108" s="10" t="n">
+      <c r="F108" s="11" t="n">
         <f aca="false">(E108-D108)/D108</f>
         <v>-0.5</v>
       </c>
-      <c r="G108" s="11"/>
-      <c r="H108" s="11"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
@@ -20916,12 +20989,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F109" s="10" t="n">
+      <c r="F109" s="11" t="n">
         <f aca="false">(E109-D109)/D109</f>
         <v>0.3125</v>
       </c>
-      <c r="G109" s="11"/>
-      <c r="H109" s="11"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
@@ -20940,12 +21013,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F110" s="12" t="n">
+      <c r="F110" s="11" t="n">
         <f aca="false">(E110-D110)/D110</f>
         <v>0.5</v>
       </c>
-      <c r="G110" s="11"/>
-      <c r="H110" s="11"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
@@ -20964,12 +21037,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F111" s="10" t="n">
+      <c r="F111" s="11" t="n">
         <f aca="false">(E111-D111)/D111</f>
         <v>0.5</v>
       </c>
-      <c r="G111" s="11"/>
-      <c r="H111" s="11"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
@@ -20988,15 +21061,15 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F112" s="10" t="n">
+      <c r="F112" s="11" t="n">
         <f aca="false">(E112-D112)/D112</f>
         <v>-0.25</v>
       </c>
-      <c r="G112" s="11" t="n">
+      <c r="G112" s="12" t="n">
         <f aca="false">AVERAGE(F112:F121)</f>
         <v>0.851810297545592</v>
       </c>
-      <c r="H112" s="11"/>
+      <c r="H112" s="12"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
@@ -21015,12 +21088,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F113" s="10" t="n">
+      <c r="F113" s="11" t="n">
         <f aca="false">(E113-D113)/D113</f>
         <v>0.05</v>
       </c>
-      <c r="G113" s="11"/>
-      <c r="H113" s="11"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
@@ -21039,12 +21112,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F114" s="10" t="n">
+      <c r="F114" s="11" t="n">
         <f aca="false">(E114-D114)/D114</f>
         <v>1.33333333333333</v>
       </c>
-      <c r="G114" s="11"/>
-      <c r="H114" s="11"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
@@ -21063,12 +21136,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F115" s="10" t="n">
+      <c r="F115" s="11" t="n">
         <f aca="false">(E115-D115)/D115</f>
         <v>0.75</v>
       </c>
-      <c r="G115" s="11"/>
-      <c r="H115" s="11"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
@@ -21087,12 +21160,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F116" s="10" t="n">
+      <c r="F116" s="11" t="n">
         <f aca="false">(E116-D116)/D116</f>
         <v>1.625</v>
       </c>
-      <c r="G116" s="11"/>
-      <c r="H116" s="11"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
@@ -21111,12 +21184,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F117" s="10" t="n">
+      <c r="F117" s="11" t="n">
         <f aca="false">(E117-D117)/D117</f>
         <v>0.235294117647059</v>
       </c>
-      <c r="G117" s="11"/>
-      <c r="H117" s="11"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
@@ -21135,12 +21208,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F118" s="10" t="n">
+      <c r="F118" s="11" t="n">
         <f aca="false">(E118-D118)/D118</f>
         <v>1.625</v>
       </c>
-      <c r="G118" s="11"/>
-      <c r="H118" s="11"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
@@ -21159,12 +21232,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F119" s="10" t="n">
+      <c r="F119" s="11" t="n">
         <f aca="false">(E119-D119)/D119</f>
         <v>0.909090909090909</v>
       </c>
-      <c r="G119" s="11"/>
-      <c r="H119" s="11"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
@@ -21183,12 +21256,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F120" s="10" t="n">
+      <c r="F120" s="11" t="n">
         <f aca="false">(E120-D120)/D120</f>
         <v>1.625</v>
       </c>
-      <c r="G120" s="11"/>
-      <c r="H120" s="11"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
@@ -21207,12 +21280,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F121" s="10" t="n">
+      <c r="F121" s="11" t="n">
         <f aca="false">(E121-D121)/D121</f>
         <v>0.615384615384615</v>
       </c>
-      <c r="G121" s="11"/>
-      <c r="H121" s="11"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
@@ -21231,15 +21304,15 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F122" s="10" t="n">
+      <c r="F122" s="11" t="n">
         <f aca="false">(E122-D122)/D122</f>
         <v>1.625</v>
       </c>
-      <c r="G122" s="11" t="n">
+      <c r="G122" s="12" t="n">
         <f aca="false">AVERAGE(F122:F132)</f>
         <v>1.60371415052395</v>
       </c>
-      <c r="H122" s="11"/>
+      <c r="H122" s="12"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
@@ -21258,12 +21331,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F123" s="10" t="n">
+      <c r="F123" s="11" t="n">
         <f aca="false">(E123-D123)/D123</f>
         <v>9.5</v>
       </c>
-      <c r="G123" s="11"/>
-      <c r="H123" s="11"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
@@ -21282,12 +21355,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F124" s="10" t="n">
+      <c r="F124" s="11" t="n">
         <f aca="false">(E124-D124)/D124</f>
         <v>0.235294117647059</v>
       </c>
-      <c r="G124" s="11"/>
-      <c r="H124" s="11"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
@@ -21306,12 +21379,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F125" s="10" t="n">
+      <c r="F125" s="11" t="n">
         <f aca="false">(E125-D125)/D125</f>
         <v>2</v>
       </c>
-      <c r="G125" s="11"/>
-      <c r="H125" s="11"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
@@ -21330,12 +21403,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F126" s="10" t="n">
+      <c r="F126" s="11" t="n">
         <f aca="false">(E126-D126)/D126</f>
         <v>0.105263157894737</v>
       </c>
-      <c r="G126" s="11"/>
-      <c r="H126" s="11"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
@@ -21354,12 +21427,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F127" s="10" t="n">
+      <c r="F127" s="11" t="n">
         <f aca="false">(E127-D127)/D127</f>
         <v>1.625</v>
       </c>
-      <c r="G127" s="11"/>
-      <c r="H127" s="11"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
@@ -21378,12 +21451,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F128" s="10" t="n">
+      <c r="F128" s="11" t="n">
         <f aca="false">(E128-D128)/D128</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="G128" s="11"/>
-      <c r="H128" s="11"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="12"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
@@ -21402,12 +21475,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F129" s="10" t="n">
+      <c r="F129" s="11" t="n">
         <f aca="false">(E129-D129)/D129</f>
         <v>2</v>
       </c>
-      <c r="G129" s="11"/>
-      <c r="H129" s="11"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
@@ -21426,12 +21499,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F130" s="10" t="n">
+      <c r="F130" s="11" t="n">
         <f aca="false">(E130-D130)/D130</f>
         <v>0.235294117647059</v>
       </c>
-      <c r="G130" s="11"/>
-      <c r="H130" s="11"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
@@ -21450,12 +21523,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F131" s="10" t="n">
+      <c r="F131" s="11" t="n">
         <f aca="false">(E131-D131)/D131</f>
         <v>0.235294117647059</v>
       </c>
-      <c r="G131" s="11"/>
-      <c r="H131" s="11"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
@@ -21474,12 +21547,12 @@
         <f aca="false">$L$13</f>
         <v>21</v>
       </c>
-      <c r="F132" s="10" t="n">
+      <c r="F132" s="11" t="n">
         <f aca="false">(E132-D132)/D132</f>
         <v>-0.0869565217391304</v>
       </c>
-      <c r="G132" s="11"/>
-      <c r="H132" s="11"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
@@ -21498,15 +21571,15 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F133" s="10" t="n">
+      <c r="F133" s="11" t="n">
         <f aca="false">(E133-D133)/D133</f>
         <v>0.236473684210526</v>
       </c>
-      <c r="G133" s="11" t="n">
+      <c r="G133" s="12" t="n">
         <f aca="false">AVERAGE(F133:F144)</f>
         <v>0.666082495870358</v>
       </c>
-      <c r="H133" s="11" t="n">
+      <c r="H133" s="12" t="n">
         <f aca="false">AVERAGE(G133:G197)</f>
         <v>1.14860860729294</v>
       </c>
@@ -21528,12 +21601,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F134" s="10" t="n">
+      <c r="F134" s="11" t="n">
         <f aca="false">(E134-D134)/D134</f>
         <v>0.118714285714286</v>
       </c>
-      <c r="G134" s="11"/>
-      <c r="H134" s="11"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="12"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
@@ -21552,12 +21625,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F135" s="10" t="n">
+      <c r="F135" s="11" t="n">
         <f aca="false">(E135-D135)/D135</f>
         <v>0.678071428571428</v>
       </c>
-      <c r="G135" s="11"/>
-      <c r="H135" s="11"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
@@ -21576,12 +21649,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F136" s="10" t="n">
+      <c r="F136" s="11" t="n">
         <f aca="false">(E136-D136)/D136</f>
         <v>0.95775</v>
       </c>
-      <c r="G136" s="11"/>
-      <c r="H136" s="11"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
@@ -21600,12 +21673,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F137" s="10" t="n">
+      <c r="F137" s="11" t="n">
         <f aca="false">(E137-D137)/D137</f>
         <v>0.0678636363636363</v>
       </c>
-      <c r="G137" s="11"/>
-      <c r="H137" s="11"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
@@ -21624,12 +21697,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F138" s="10" t="n">
+      <c r="F138" s="11" t="n">
         <f aca="false">(E138-D138)/D138</f>
         <v>1.13572727272727</v>
       </c>
-      <c r="G138" s="11"/>
-      <c r="H138" s="11"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="12"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
@@ -21648,12 +21721,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F139" s="10" t="n">
+      <c r="F139" s="11" t="n">
         <f aca="false">(E139-D139)/D139</f>
         <v>2.35614285714286</v>
       </c>
-      <c r="G139" s="11"/>
-      <c r="H139" s="11"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
@@ -21672,12 +21745,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F140" s="10" t="n">
+      <c r="F140" s="11" t="n">
         <f aca="false">(E140-D140)/D140</f>
         <v>0.118714285714286</v>
       </c>
-      <c r="G140" s="11"/>
-      <c r="H140" s="11"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
@@ -21696,12 +21769,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F141" s="10" t="n">
+      <c r="F141" s="11" t="n">
         <f aca="false">(E141-D141)/D141</f>
         <v>0.4683125</v>
       </c>
-      <c r="G141" s="11"/>
-      <c r="H141" s="11"/>
+      <c r="G141" s="12"/>
+      <c r="H141" s="12"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
@@ -21720,12 +21793,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F142" s="10" t="n">
+      <c r="F142" s="11" t="n">
         <f aca="false">(E142-D142)/D142</f>
         <v>0.5662</v>
       </c>
-      <c r="G142" s="11"/>
-      <c r="H142" s="11"/>
+      <c r="G142" s="12"/>
+      <c r="H142" s="12"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
@@ -21744,12 +21817,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F143" s="10" t="n">
+      <c r="F143" s="11" t="n">
         <f aca="false">(E143-D143)/D143</f>
         <v>-0.0602800000000001</v>
       </c>
-      <c r="G143" s="11"/>
-      <c r="H143" s="11"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="12"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
@@ -21768,12 +21841,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F144" s="10" t="n">
+      <c r="F144" s="11" t="n">
         <f aca="false">(E144-D144)/D144</f>
         <v>1.3493</v>
       </c>
-      <c r="G144" s="11"/>
-      <c r="H144" s="11"/>
+      <c r="G144" s="12"/>
+      <c r="H144" s="12"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
@@ -21792,15 +21865,15 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F145" s="10" t="n">
+      <c r="F145" s="11" t="n">
         <f aca="false">(E145-D145)/D145</f>
         <v>-0.587842105263158</v>
       </c>
-      <c r="G145" s="11" t="n">
+      <c r="G145" s="12" t="n">
         <f aca="false">AVERAGE(F145:F158)</f>
         <v>0.788100682383737</v>
       </c>
-      <c r="H145" s="11"/>
+      <c r="H145" s="12"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="n">
@@ -21819,12 +21892,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F146" s="10" t="n">
+      <c r="F146" s="11" t="n">
         <f aca="false">(E146-D146)/D146</f>
         <v>1.13572727272727</v>
       </c>
-      <c r="G146" s="11"/>
-      <c r="H146" s="11"/>
+      <c r="G146" s="12"/>
+      <c r="H146" s="12"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
@@ -21843,12 +21916,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F147" s="10" t="n">
+      <c r="F147" s="11" t="n">
         <f aca="false">(E147-D147)/D147</f>
         <v>0.381941176470588</v>
       </c>
-      <c r="G147" s="11"/>
-      <c r="H147" s="11"/>
+      <c r="G147" s="12"/>
+      <c r="H147" s="12"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="n">
@@ -21867,12 +21940,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F148" s="10" t="n">
+      <c r="F148" s="11" t="n">
         <f aca="false">(E148-D148)/D148</f>
         <v>1.936625</v>
       </c>
-      <c r="G148" s="11"/>
-      <c r="H148" s="11"/>
+      <c r="G148" s="12"/>
+      <c r="H148" s="12"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
@@ -21891,12 +21964,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F149" s="10" t="n">
+      <c r="F149" s="11" t="n">
         <f aca="false">(E149-D149)/D149</f>
         <v>0.807153846153846</v>
       </c>
-      <c r="G149" s="11"/>
-      <c r="H149" s="11"/>
+      <c r="G149" s="12"/>
+      <c r="H149" s="12"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="n">
@@ -21915,12 +21988,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F150" s="10" t="n">
+      <c r="F150" s="11" t="n">
         <f aca="false">(E150-D150)/D150</f>
         <v>-0.397615384615385</v>
       </c>
-      <c r="G150" s="11"/>
-      <c r="H150" s="11"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="12"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="n">
@@ -21939,12 +22012,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F151" s="10" t="n">
+      <c r="F151" s="11" t="n">
         <f aca="false">(E151-D151)/D151</f>
         <v>0.4683125</v>
       </c>
-      <c r="G151" s="11"/>
-      <c r="H151" s="11"/>
+      <c r="G151" s="12"/>
+      <c r="H151" s="12"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="n">
@@ -21963,12 +22036,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F152" s="10" t="n">
+      <c r="F152" s="11" t="n">
         <f aca="false">(E152-D152)/D152</f>
         <v>0.118714285714286</v>
       </c>
-      <c r="G152" s="11"/>
-      <c r="H152" s="11"/>
+      <c r="G152" s="12"/>
+      <c r="H152" s="12"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="n">
@@ -21987,12 +22060,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F153" s="10" t="n">
+      <c r="F153" s="11" t="n">
         <f aca="false">(E153-D153)/D153</f>
         <v>0.4683125</v>
       </c>
-      <c r="G153" s="11"/>
-      <c r="H153" s="11"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="12"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="n">
@@ -22011,12 +22084,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F154" s="10" t="n">
+      <c r="F154" s="11" t="n">
         <f aca="false">(E154-D154)/D154</f>
         <v>1.3493</v>
       </c>
-      <c r="G154" s="11"/>
-      <c r="H154" s="11"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="12"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
@@ -22035,12 +22108,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F155" s="10" t="n">
+      <c r="F155" s="11" t="n">
         <f aca="false">(E155-D155)/D155</f>
         <v>1.936625</v>
       </c>
-      <c r="G155" s="11"/>
-      <c r="H155" s="11"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="12"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="n">
@@ -22059,12 +22132,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F156" s="10" t="n">
+      <c r="F156" s="11" t="n">
         <f aca="false">(E156-D156)/D156</f>
         <v>2.35614285714286</v>
       </c>
-      <c r="G156" s="11"/>
-      <c r="H156" s="11"/>
+      <c r="G156" s="12"/>
+      <c r="H156" s="12"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="n">
@@ -22083,12 +22156,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F157" s="10" t="n">
+      <c r="F157" s="11" t="n">
         <f aca="false">(E157-D157)/D157</f>
         <v>0.678071428571428</v>
       </c>
-      <c r="G157" s="11"/>
-      <c r="H157" s="11"/>
+      <c r="G157" s="12"/>
+      <c r="H157" s="12"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="n">
@@ -22107,12 +22180,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F158" s="10" t="n">
+      <c r="F158" s="11" t="n">
         <f aca="false">(E158-D158)/D158</f>
         <v>0.381941176470588</v>
       </c>
-      <c r="G158" s="11"/>
-      <c r="H158" s="11"/>
+      <c r="G158" s="12"/>
+      <c r="H158" s="12"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="n">
@@ -22131,15 +22204,15 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F159" s="10" t="n">
+      <c r="F159" s="11" t="n">
         <f aca="false">(E159-D159)/D159</f>
         <v>0.305166666666667</v>
       </c>
-      <c r="G159" s="11" t="n">
+      <c r="G159" s="12" t="n">
         <f aca="false">AVERAGE(F159:F170)</f>
         <v>1.55175091928</v>
       </c>
-      <c r="H159" s="11"/>
+      <c r="H159" s="12"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
@@ -22158,12 +22231,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F160" s="10" t="n">
+      <c r="F160" s="11" t="n">
         <f aca="false">(E160-D160)/D160</f>
         <v>0.0214347826086956</v>
       </c>
-      <c r="G160" s="11"/>
-      <c r="H160" s="11"/>
+      <c r="G160" s="12"/>
+      <c r="H160" s="12"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="n">
@@ -22182,12 +22255,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F161" s="10" t="n">
+      <c r="F161" s="11" t="n">
         <f aca="false">(E161-D161)/D161</f>
         <v>0.5662</v>
       </c>
-      <c r="G161" s="11"/>
-      <c r="H161" s="11"/>
+      <c r="G161" s="12"/>
+      <c r="H161" s="12"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="n">
@@ -22206,12 +22279,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F162" s="10" t="n">
+      <c r="F162" s="11" t="n">
         <f aca="false">(E162-D162)/D162</f>
         <v>1.13572727272727</v>
       </c>
-      <c r="G162" s="11"/>
-      <c r="H162" s="11"/>
+      <c r="G162" s="12"/>
+      <c r="H162" s="12"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
@@ -22230,12 +22303,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F163" s="10" t="n">
+      <c r="F163" s="11" t="n">
         <f aca="false">(E163-D163)/D163</f>
         <v>1.13572727272727</v>
       </c>
-      <c r="G163" s="11"/>
-      <c r="H163" s="11"/>
+      <c r="G163" s="12"/>
+      <c r="H163" s="12"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="n">
@@ -22254,12 +22327,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F164" s="10" t="n">
+      <c r="F164" s="11" t="n">
         <f aca="false">(E164-D164)/D164</f>
         <v>1.936625</v>
       </c>
-      <c r="G164" s="11"/>
-      <c r="H164" s="11"/>
+      <c r="G164" s="12"/>
+      <c r="H164" s="12"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="n">
@@ -22278,12 +22351,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F165" s="10" t="n">
+      <c r="F165" s="11" t="n">
         <f aca="false">(E165-D165)/D165</f>
         <v>1.3493</v>
       </c>
-      <c r="G165" s="11"/>
-      <c r="H165" s="11"/>
+      <c r="G165" s="12"/>
+      <c r="H165" s="12"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="n">
@@ -22302,12 +22375,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F166" s="10" t="n">
+      <c r="F166" s="11" t="n">
         <f aca="false">(E166-D166)/D166</f>
         <v>1.61033333333333</v>
       </c>
-      <c r="G166" s="11"/>
-      <c r="H166" s="11"/>
+      <c r="G166" s="12"/>
+      <c r="H166" s="12"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="n">
@@ -22326,12 +22399,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F167" s="10" t="n">
+      <c r="F167" s="11" t="n">
         <f aca="false">(E167-D167)/D167</f>
         <v>0.807153846153846</v>
       </c>
-      <c r="G167" s="11"/>
-      <c r="H167" s="11"/>
+      <c r="G167" s="12"/>
+      <c r="H167" s="12"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="n">
@@ -22350,12 +22423,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F168" s="10" t="n">
+      <c r="F168" s="11" t="n">
         <f aca="false">(E168-D168)/D168</f>
         <v>3.6986</v>
       </c>
-      <c r="G168" s="11"/>
-      <c r="H168" s="11"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="12"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="n">
@@ -22374,12 +22447,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F169" s="10" t="n">
+      <c r="F169" s="11" t="n">
         <f aca="false">(E169-D169)/D169</f>
         <v>2.35614285714286</v>
       </c>
-      <c r="G169" s="11"/>
-      <c r="H169" s="11"/>
+      <c r="G169" s="12"/>
+      <c r="H169" s="12"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="n">
@@ -22398,12 +22471,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F170" s="10" t="n">
+      <c r="F170" s="11" t="n">
         <f aca="false">(E170-D170)/D170</f>
         <v>3.6986</v>
       </c>
-      <c r="G170" s="11"/>
-      <c r="H170" s="11"/>
+      <c r="G170" s="12"/>
+      <c r="H170" s="12"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="n">
@@ -22422,15 +22495,15 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F171" s="10" t="n">
+      <c r="F171" s="11" t="n">
         <f aca="false">(E171-D171)/D171</f>
         <v>0.0678636363636363</v>
       </c>
-      <c r="G171" s="11" t="n">
+      <c r="G171" s="12" t="n">
         <f aca="false">AVERAGE(F171:F183)</f>
         <v>1.22296808395225</v>
       </c>
-      <c r="H171" s="11"/>
+      <c r="H171" s="12"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="n">
@@ -22449,12 +22522,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F172" s="10" t="n">
+      <c r="F172" s="11" t="n">
         <f aca="false">(E172-D172)/D172</f>
         <v>2.35614285714286</v>
       </c>
-      <c r="G172" s="11"/>
-      <c r="H172" s="11"/>
+      <c r="G172" s="12"/>
+      <c r="H172" s="12"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="n">
@@ -22473,12 +22546,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F173" s="10" t="n">
+      <c r="F173" s="11" t="n">
         <f aca="false">(E173-D173)/D173</f>
         <v>0.381941176470588</v>
       </c>
-      <c r="G173" s="11"/>
-      <c r="H173" s="11"/>
+      <c r="G173" s="12"/>
+      <c r="H173" s="12"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="n">
@@ -22497,12 +22570,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F174" s="10" t="n">
+      <c r="F174" s="11" t="n">
         <f aca="false">(E174-D174)/D174</f>
         <v>0.118714285714286</v>
       </c>
-      <c r="G174" s="11"/>
-      <c r="H174" s="11"/>
+      <c r="G174" s="12"/>
+      <c r="H174" s="12"/>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="n">
@@ -22521,12 +22594,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F175" s="10" t="n">
+      <c r="F175" s="11" t="n">
         <f aca="false">(E175-D175)/D175</f>
         <v>2.35614285714286</v>
       </c>
-      <c r="G175" s="11"/>
-      <c r="H175" s="11"/>
+      <c r="G175" s="12"/>
+      <c r="H175" s="12"/>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="n">
@@ -22545,12 +22618,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F176" s="10" t="n">
+      <c r="F176" s="11" t="n">
         <f aca="false">(E176-D176)/D176</f>
         <v>-0.309029411764706</v>
       </c>
-      <c r="G176" s="11"/>
-      <c r="H176" s="11"/>
+      <c r="G176" s="12"/>
+      <c r="H176" s="12"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="n">
@@ -22569,12 +22642,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F177" s="10" t="n">
+      <c r="F177" s="11" t="n">
         <f aca="false">(E177-D177)/D177</f>
         <v>1.13572727272727</v>
       </c>
-      <c r="G177" s="11"/>
-      <c r="H177" s="11"/>
+      <c r="G177" s="12"/>
+      <c r="H177" s="12"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="n">
@@ -22593,12 +22666,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F178" s="10" t="n">
+      <c r="F178" s="11" t="n">
         <f aca="false">(E178-D178)/D178</f>
         <v>0.807153846153846</v>
       </c>
-      <c r="G178" s="11"/>
-      <c r="H178" s="11"/>
+      <c r="G178" s="12"/>
+      <c r="H178" s="12"/>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="n">
@@ -22617,12 +22690,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F179" s="10" t="n">
+      <c r="F179" s="11" t="n">
         <f aca="false">(E179-D179)/D179</f>
         <v>-0.160964285714286</v>
       </c>
-      <c r="G179" s="11"/>
-      <c r="H179" s="11"/>
+      <c r="G179" s="12"/>
+      <c r="H179" s="12"/>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="n">
@@ -22641,12 +22714,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F180" s="10" t="n">
+      <c r="F180" s="11" t="n">
         <f aca="false">(E180-D180)/D180</f>
         <v>0.95775</v>
       </c>
-      <c r="G180" s="11"/>
-      <c r="H180" s="11"/>
+      <c r="G180" s="12"/>
+      <c r="H180" s="12"/>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="n">
@@ -22665,12 +22738,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F181" s="10" t="n">
+      <c r="F181" s="11" t="n">
         <f aca="false">(E181-D181)/D181</f>
         <v>2.9155</v>
       </c>
-      <c r="G181" s="11"/>
-      <c r="H181" s="11"/>
+      <c r="G181" s="12"/>
+      <c r="H181" s="12"/>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="n">
@@ -22689,12 +22762,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F182" s="10" t="n">
+      <c r="F182" s="11" t="n">
         <f aca="false">(E182-D182)/D182</f>
         <v>2.35614285714286</v>
       </c>
-      <c r="G182" s="11"/>
-      <c r="H182" s="11"/>
+      <c r="G182" s="12"/>
+      <c r="H182" s="12"/>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="n">
@@ -22713,12 +22786,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F183" s="10" t="n">
+      <c r="F183" s="11" t="n">
         <f aca="false">(E183-D183)/D183</f>
         <v>2.9155</v>
       </c>
-      <c r="G183" s="11"/>
-      <c r="H183" s="11"/>
+      <c r="G183" s="12"/>
+      <c r="H183" s="12"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="n">
@@ -22737,15 +22810,15 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F184" s="10" t="n">
+      <c r="F184" s="11" t="n">
         <f aca="false">(E184-D184)/D184</f>
         <v>-0.288090909090909</v>
       </c>
-      <c r="G184" s="11" t="n">
+      <c r="G184" s="12" t="n">
         <f aca="false">AVERAGE(F184:F197)</f>
         <v>1.51414085497835</v>
       </c>
-      <c r="H184" s="11"/>
+      <c r="H184" s="12"/>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="n">
@@ -22764,12 +22837,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F185" s="10" t="n">
+      <c r="F185" s="11" t="n">
         <f aca="false">(E185-D185)/D185</f>
         <v>1.13572727272727</v>
       </c>
-      <c r="G185" s="11"/>
-      <c r="H185" s="11"/>
+      <c r="G185" s="12"/>
+      <c r="H185" s="12"/>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="n">
@@ -22788,12 +22861,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F186" s="10" t="n">
+      <c r="F186" s="11" t="n">
         <f aca="false">(E186-D186)/D186</f>
         <v>1.936625</v>
       </c>
-      <c r="G186" s="11"/>
-      <c r="H186" s="11"/>
+      <c r="G186" s="12"/>
+      <c r="H186" s="12"/>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="n">
@@ -22812,12 +22885,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F187" s="10" t="n">
+      <c r="F187" s="11" t="n">
         <f aca="false">(E187-D187)/D187</f>
         <v>2.9155</v>
       </c>
-      <c r="G187" s="11"/>
-      <c r="H187" s="11"/>
+      <c r="G187" s="12"/>
+      <c r="H187" s="12"/>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="n">
@@ -22836,12 +22909,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F188" s="10" t="n">
+      <c r="F188" s="11" t="n">
         <f aca="false">(E188-D188)/D188</f>
         <v>0.305166666666667</v>
       </c>
-      <c r="G188" s="11"/>
-      <c r="H188" s="11"/>
+      <c r="G188" s="12"/>
+      <c r="H188" s="12"/>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="n">
@@ -22860,12 +22933,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F189" s="10" t="n">
+      <c r="F189" s="11" t="n">
         <f aca="false">(E189-D189)/D189</f>
         <v>1.61033333333333</v>
       </c>
-      <c r="G189" s="11"/>
-      <c r="H189" s="11"/>
+      <c r="G189" s="12"/>
+      <c r="H189" s="12"/>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="n">
@@ -22884,12 +22957,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F190" s="10" t="n">
+      <c r="F190" s="11" t="n">
         <f aca="false">(E190-D190)/D190</f>
         <v>1.3493</v>
       </c>
-      <c r="G190" s="11"/>
-      <c r="H190" s="11"/>
+      <c r="G190" s="12"/>
+      <c r="H190" s="12"/>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="n">
@@ -22908,12 +22981,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F191" s="10" t="n">
+      <c r="F191" s="11" t="n">
         <f aca="false">(E191-D191)/D191</f>
         <v>0.17465</v>
       </c>
-      <c r="G191" s="11"/>
-      <c r="H191" s="11"/>
+      <c r="G191" s="12"/>
+      <c r="H191" s="12"/>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="n">
@@ -22932,12 +23005,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F192" s="10" t="n">
+      <c r="F192" s="11" t="n">
         <f aca="false">(E192-D192)/D192</f>
         <v>3.6986</v>
       </c>
-      <c r="G192" s="11"/>
-      <c r="H192" s="11"/>
+      <c r="G192" s="12"/>
+      <c r="H192" s="12"/>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="n">
@@ -22956,12 +23029,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F193" s="10" t="n">
+      <c r="F193" s="11" t="n">
         <f aca="false">(E193-D193)/D193</f>
         <v>1.61033333333333</v>
       </c>
-      <c r="G193" s="11"/>
-      <c r="H193" s="11"/>
+      <c r="G193" s="12"/>
+      <c r="H193" s="12"/>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="n">
@@ -22980,12 +23053,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F194" s="10" t="n">
+      <c r="F194" s="11" t="n">
         <f aca="false">(E194-D194)/D194</f>
         <v>0.5662</v>
       </c>
-      <c r="G194" s="11"/>
-      <c r="H194" s="11"/>
+      <c r="G194" s="12"/>
+      <c r="H194" s="12"/>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="n">
@@ -23004,12 +23077,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F195" s="10" t="n">
+      <c r="F195" s="11" t="n">
         <f aca="false">(E195-D195)/D195</f>
         <v>3.6986</v>
       </c>
-      <c r="G195" s="11"/>
-      <c r="H195" s="11"/>
+      <c r="G195" s="12"/>
+      <c r="H195" s="12"/>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="n">
@@ -23028,12 +23101,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F196" s="10" t="n">
+      <c r="F196" s="11" t="n">
         <f aca="false">(E196-D196)/D196</f>
         <v>1.3493</v>
       </c>
-      <c r="G196" s="11"/>
-      <c r="H196" s="11"/>
+      <c r="G196" s="12"/>
+      <c r="H196" s="12"/>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="n">
@@ -23052,12 +23125,12 @@
         <f aca="false">$L$14</f>
         <v>23.493</v>
       </c>
-      <c r="F197" s="10" t="n">
+      <c r="F197" s="11" t="n">
         <f aca="false">(E197-D197)/D197</f>
         <v>1.13572727272727</v>
       </c>
-      <c r="G197" s="11"/>
-      <c r="H197" s="11"/>
+      <c r="G197" s="12"/>
+      <c r="H197" s="12"/>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="n">
@@ -23076,15 +23149,15 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F198" s="10" t="n">
+      <c r="F198" s="11" t="n">
         <f aca="false">(E198-D198)/D198</f>
         <v>0.115</v>
       </c>
-      <c r="G198" s="11" t="n">
+      <c r="G198" s="12" t="n">
         <f aca="false">AVERAGE(F198:F216)</f>
         <v>1.19876385979364</v>
       </c>
-      <c r="H198" s="11" t="n">
+      <c r="H198" s="12" t="n">
         <f aca="false">AVERAGE(G198:G267)</f>
         <v>0.789340192866472</v>
       </c>
@@ -23106,12 +23179,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F199" s="10" t="n">
+      <c r="F199" s="11" t="n">
         <f aca="false">(E199-D199)/D199</f>
         <v>-0.00236842105263167</v>
       </c>
-      <c r="G199" s="11"/>
-      <c r="H199" s="11"/>
+      <c r="G199" s="12"/>
+      <c r="H199" s="12"/>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="n">
@@ -23130,12 +23203,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F200" s="10" t="n">
+      <c r="F200" s="11" t="n">
         <f aca="false">(E200-D200)/D200</f>
         <v>2.791</v>
       </c>
-      <c r="G200" s="11"/>
-      <c r="H200" s="11"/>
+      <c r="G200" s="12"/>
+      <c r="H200" s="12"/>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="n">
@@ -23154,12 +23227,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F201" s="10" t="n">
+      <c r="F201" s="11" t="n">
         <f aca="false">(E201-D201)/D201</f>
         <v>0.1846875</v>
       </c>
-      <c r="G201" s="11"/>
-      <c r="H201" s="11"/>
+      <c r="G201" s="12"/>
+      <c r="H201" s="12"/>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="n">
@@ -23178,12 +23251,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F202" s="10" t="n">
+      <c r="F202" s="11" t="n">
         <f aca="false">(E202-D202)/D202</f>
         <v>-0.0522500000000001</v>
       </c>
-      <c r="G202" s="11"/>
-      <c r="H202" s="11"/>
+      <c r="G202" s="12"/>
+      <c r="H202" s="12"/>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="n">
@@ -23202,12 +23275,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F203" s="10" t="n">
+      <c r="F203" s="11" t="n">
         <f aca="false">(E203-D203)/D203</f>
         <v>2.15916666666667</v>
       </c>
-      <c r="G203" s="11"/>
-      <c r="H203" s="11"/>
+      <c r="G203" s="12"/>
+      <c r="H203" s="12"/>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="n">
@@ -23226,12 +23299,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F204" s="10" t="n">
+      <c r="F204" s="11" t="n">
         <f aca="false">(E204-D204)/D204</f>
         <v>1.369375</v>
       </c>
-      <c r="G204" s="11"/>
-      <c r="H204" s="11"/>
+      <c r="G204" s="12"/>
+      <c r="H204" s="12"/>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="n">
@@ -23250,12 +23323,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F205" s="10" t="n">
+      <c r="F205" s="11" t="n">
         <f aca="false">(E205-D205)/D205</f>
         <v>3.73875</v>
       </c>
-      <c r="G205" s="11"/>
-      <c r="H205" s="11"/>
+      <c r="G205" s="12"/>
+      <c r="H205" s="12"/>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="n">
@@ -23274,12 +23347,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F206" s="10" t="n">
+      <c r="F206" s="11" t="n">
         <f aca="false">(E206-D206)/D206</f>
         <v>0.8955</v>
       </c>
-      <c r="G206" s="11"/>
-      <c r="H206" s="11"/>
+      <c r="G206" s="12"/>
+      <c r="H206" s="12"/>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="n">
@@ -23298,12 +23371,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F207" s="10" t="n">
+      <c r="F207" s="11" t="n">
         <f aca="false">(E207-D207)/D207</f>
         <v>0.1846875</v>
       </c>
-      <c r="G207" s="11"/>
-      <c r="H207" s="11"/>
+      <c r="G207" s="12"/>
+      <c r="H207" s="12"/>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="n">
@@ -23322,12 +23395,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F208" s="10" t="n">
+      <c r="F208" s="11" t="n">
         <f aca="false">(E208-D208)/D208</f>
         <v>0.353928571428571</v>
       </c>
-      <c r="G208" s="11"/>
-      <c r="H208" s="11"/>
+      <c r="G208" s="12"/>
+      <c r="H208" s="12"/>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="n">
@@ -23346,12 +23419,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F209" s="10" t="n">
+      <c r="F209" s="11" t="n">
         <f aca="false">(E209-D209)/D209</f>
         <v>3.73875</v>
       </c>
-      <c r="G209" s="11"/>
-      <c r="H209" s="11"/>
+      <c r="G209" s="12"/>
+      <c r="H209" s="12"/>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="n">
@@ -23370,12 +23443,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F210" s="10" t="n">
+      <c r="F210" s="11" t="n">
         <f aca="false">(E210-D210)/D210</f>
         <v>0.458076923076923</v>
       </c>
-      <c r="G210" s="11"/>
-      <c r="H210" s="11"/>
+      <c r="G210" s="12"/>
+      <c r="H210" s="12"/>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="n">
@@ -23394,12 +23467,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F211" s="10" t="n">
+      <c r="F211" s="11" t="n">
         <f aca="false">(E211-D211)/D211</f>
         <v>5.31833333333333</v>
       </c>
-      <c r="G211" s="11"/>
-      <c r="H211" s="11"/>
+      <c r="G211" s="12"/>
+      <c r="H211" s="12"/>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="n">
@@ -23418,12 +23491,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F212" s="10" t="n">
+      <c r="F212" s="11" t="n">
         <f aca="false">(E212-D212)/D212</f>
         <v>0.0530555555555555</v>
       </c>
-      <c r="G212" s="11"/>
-      <c r="H212" s="11"/>
+      <c r="G212" s="12"/>
+      <c r="H212" s="12"/>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="n">
@@ -23442,12 +23515,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F213" s="10" t="n">
+      <c r="F213" s="11" t="n">
         <f aca="false">(E213-D213)/D213</f>
         <v>0.115</v>
       </c>
-      <c r="G213" s="11"/>
-      <c r="H213" s="11"/>
+      <c r="G213" s="12"/>
+      <c r="H213" s="12"/>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="n">
@@ -23466,12 +23539,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F214" s="10" t="n">
+      <c r="F214" s="11" t="n">
         <f aca="false">(E214-D214)/D214</f>
         <v>0.0530555555555555</v>
       </c>
-      <c r="G214" s="11"/>
-      <c r="H214" s="11"/>
+      <c r="G214" s="12"/>
+      <c r="H214" s="12"/>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="n">
@@ -23490,12 +23563,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F215" s="10" t="n">
+      <c r="F215" s="11" t="n">
         <f aca="false">(E215-D215)/D215</f>
         <v>0.723181818181818</v>
       </c>
-      <c r="G215" s="11"/>
-      <c r="H215" s="11"/>
+      <c r="G215" s="12"/>
+      <c r="H215" s="12"/>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="n">
@@ -23514,12 +23587,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F216" s="10" t="n">
+      <c r="F216" s="11" t="n">
         <f aca="false">(E216-D216)/D216</f>
         <v>0.579583333333333</v>
       </c>
-      <c r="G216" s="11"/>
-      <c r="H216" s="11"/>
+      <c r="G216" s="12"/>
+      <c r="H216" s="12"/>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="n">
@@ -23538,15 +23611,15 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F217" s="10" t="n">
+      <c r="F217" s="11" t="n">
         <f aca="false">(E217-D217)/D217</f>
         <v>0.0530555555555555</v>
       </c>
-      <c r="G217" s="11" t="n">
+      <c r="G217" s="12" t="n">
         <f aca="false">AVERAGE(F217:F231)</f>
         <v>0.818633476854529</v>
       </c>
-      <c r="H217" s="11"/>
+      <c r="H217" s="12"/>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="n">
@@ -23565,12 +23638,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F218" s="10" t="n">
+      <c r="F218" s="11" t="n">
         <f aca="false">(E218-D218)/D218</f>
         <v>-0.00236842105263167</v>
       </c>
-      <c r="G218" s="11"/>
-      <c r="H218" s="11"/>
+      <c r="G218" s="12"/>
+      <c r="H218" s="12"/>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="n">
@@ -23589,12 +23662,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F219" s="10" t="n">
+      <c r="F219" s="11" t="n">
         <f aca="false">(E219-D219)/D219</f>
         <v>1.369375</v>
       </c>
-      <c r="G219" s="11"/>
-      <c r="H219" s="11"/>
+      <c r="G219" s="12"/>
+      <c r="H219" s="12"/>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="n">
@@ -23613,12 +23686,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F220" s="10" t="n">
+      <c r="F220" s="11" t="n">
         <f aca="false">(E220-D220)/D220</f>
         <v>-0.0973809523809525</v>
       </c>
-      <c r="G220" s="11"/>
-      <c r="H220" s="11"/>
+      <c r="G220" s="12"/>
+      <c r="H220" s="12"/>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="n">
@@ -23637,12 +23710,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F221" s="10" t="n">
+      <c r="F221" s="11" t="n">
         <f aca="false">(E221-D221)/D221</f>
         <v>0.458076923076923</v>
       </c>
-      <c r="G221" s="11"/>
-      <c r="H221" s="11"/>
+      <c r="G221" s="12"/>
+      <c r="H221" s="12"/>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="n">
@@ -23661,12 +23734,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F222" s="10" t="n">
+      <c r="F222" s="11" t="n">
         <f aca="false">(E222-D222)/D222</f>
         <v>0.353928571428571</v>
       </c>
-      <c r="G222" s="11"/>
-      <c r="H222" s="11"/>
+      <c r="G222" s="12"/>
+      <c r="H222" s="12"/>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="n">
@@ -23685,12 +23758,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F223" s="10" t="n">
+      <c r="F223" s="11" t="n">
         <f aca="false">(E223-D223)/D223</f>
         <v>0.0530555555555555</v>
       </c>
-      <c r="G223" s="11"/>
-      <c r="H223" s="11"/>
+      <c r="G223" s="12"/>
+      <c r="H223" s="12"/>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="n">
@@ -23709,12 +23782,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F224" s="10" t="n">
+      <c r="F224" s="11" t="n">
         <f aca="false">(E224-D224)/D224</f>
         <v>1.70785714285714</v>
       </c>
-      <c r="G224" s="11"/>
-      <c r="H224" s="11"/>
+      <c r="G224" s="12"/>
+      <c r="H224" s="12"/>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="n">
@@ -23733,12 +23806,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F225" s="10" t="n">
+      <c r="F225" s="11" t="n">
         <f aca="false">(E225-D225)/D225</f>
         <v>0.115</v>
       </c>
-      <c r="G225" s="11"/>
-      <c r="H225" s="11"/>
+      <c r="G225" s="12"/>
+      <c r="H225" s="12"/>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="n">
@@ -23757,12 +23830,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F226" s="10" t="n">
+      <c r="F226" s="11" t="n">
         <f aca="false">(E226-D226)/D226</f>
         <v>2.15916666666667</v>
       </c>
-      <c r="G226" s="11"/>
-      <c r="H226" s="11"/>
+      <c r="G226" s="12"/>
+      <c r="H226" s="12"/>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="n">
@@ -23781,12 +23854,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F227" s="10" t="n">
+      <c r="F227" s="11" t="n">
         <f aca="false">(E227-D227)/D227</f>
         <v>0.8955</v>
       </c>
-      <c r="G227" s="11"/>
-      <c r="H227" s="11"/>
+      <c r="G227" s="12"/>
+      <c r="H227" s="12"/>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="n">
@@ -23805,12 +23878,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F228" s="10" t="n">
+      <c r="F228" s="11" t="n">
         <f aca="false">(E228-D228)/D228</f>
         <v>2.15916666666667</v>
       </c>
-      <c r="G228" s="11"/>
-      <c r="H228" s="11"/>
+      <c r="G228" s="12"/>
+      <c r="H228" s="12"/>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="n">
@@ -23829,12 +23902,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F229" s="10" t="n">
+      <c r="F229" s="11" t="n">
         <f aca="false">(E229-D229)/D229</f>
         <v>1.369375</v>
       </c>
-      <c r="G229" s="11"/>
-      <c r="H229" s="11"/>
+      <c r="G229" s="12"/>
+      <c r="H229" s="12"/>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="n">
@@ -23853,12 +23926,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F230" s="10" t="n">
+      <c r="F230" s="11" t="n">
         <f aca="false">(E230-D230)/D230</f>
         <v>0.579583333333333</v>
       </c>
-      <c r="G230" s="11"/>
-      <c r="H230" s="11"/>
+      <c r="G230" s="12"/>
+      <c r="H230" s="12"/>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="n">
@@ -23877,12 +23950,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F231" s="10" t="n">
+      <c r="F231" s="11" t="n">
         <f aca="false">(E231-D231)/D231</f>
         <v>1.10611111111111</v>
       </c>
-      <c r="G231" s="11"/>
-      <c r="H231" s="11"/>
+      <c r="G231" s="12"/>
+      <c r="H231" s="12"/>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="n">
@@ -23901,15 +23974,15 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F232" s="10" t="n">
+      <c r="F232" s="11" t="n">
         <f aca="false">(E232-D232)/D232</f>
         <v>5.31833333333333</v>
       </c>
-      <c r="G232" s="11" t="n">
+      <c r="G232" s="12" t="n">
         <f aca="false">AVERAGE(F232:F241)</f>
         <v>0.967593803418803</v>
       </c>
-      <c r="H232" s="11"/>
+      <c r="H232" s="12"/>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="n">
@@ -23928,12 +24001,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F233" s="10" t="n">
+      <c r="F233" s="11" t="n">
         <f aca="false">(E233-D233)/D233</f>
         <v>0.8955</v>
       </c>
-      <c r="G233" s="11"/>
-      <c r="H233" s="11"/>
+      <c r="G233" s="12"/>
+      <c r="H233" s="12"/>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="n">
@@ -23952,12 +24025,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F234" s="10" t="n">
+      <c r="F234" s="11" t="n">
         <f aca="false">(E234-D234)/D234</f>
         <v>1.10611111111111</v>
       </c>
-      <c r="G234" s="11"/>
-      <c r="H234" s="11"/>
+      <c r="G234" s="12"/>
+      <c r="H234" s="12"/>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="n">
@@ -23976,12 +24049,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F235" s="10" t="n">
+      <c r="F235" s="11" t="n">
         <f aca="false">(E235-D235)/D235</f>
         <v>-0.425606060606061</v>
       </c>
-      <c r="G235" s="11"/>
-      <c r="H235" s="11"/>
+      <c r="G235" s="12"/>
+      <c r="H235" s="12"/>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="n">
@@ -24000,12 +24073,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F236" s="10" t="n">
+      <c r="F236" s="11" t="n">
         <f aca="false">(E236-D236)/D236</f>
         <v>-0.138409090909091</v>
       </c>
-      <c r="G236" s="11"/>
-      <c r="H236" s="11"/>
+      <c r="G236" s="12"/>
+      <c r="H236" s="12"/>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="n">
@@ -24024,12 +24097,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F237" s="10" t="n">
+      <c r="F237" s="11" t="n">
         <f aca="false">(E237-D237)/D237</f>
         <v>0.723181818181818</v>
       </c>
-      <c r="G237" s="11"/>
-      <c r="H237" s="11"/>
+      <c r="G237" s="12"/>
+      <c r="H237" s="12"/>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="n">
@@ -24048,12 +24121,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F238" s="10" t="n">
+      <c r="F238" s="11" t="n">
         <f aca="false">(E238-D238)/D238</f>
         <v>-0.210208333333333</v>
       </c>
-      <c r="G238" s="11"/>
-      <c r="H238" s="11"/>
+      <c r="G238" s="12"/>
+      <c r="H238" s="12"/>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="n">
@@ -24072,12 +24145,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F239" s="10" t="n">
+      <c r="F239" s="11" t="n">
         <f aca="false">(E239-D239)/D239</f>
         <v>2.15916666666667</v>
       </c>
-      <c r="G239" s="11"/>
-      <c r="H239" s="11"/>
+      <c r="G239" s="12"/>
+      <c r="H239" s="12"/>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="n">
@@ -24096,12 +24169,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F240" s="10" t="n">
+      <c r="F240" s="11" t="n">
         <f aca="false">(E240-D240)/D240</f>
         <v>-0.210208333333333</v>
       </c>
-      <c r="G240" s="11"/>
-      <c r="H240" s="11"/>
+      <c r="G240" s="12"/>
+      <c r="H240" s="12"/>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="n">
@@ -24120,12 +24193,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F241" s="10" t="n">
+      <c r="F241" s="11" t="n">
         <f aca="false">(E241-D241)/D241</f>
         <v>0.458076923076923</v>
       </c>
-      <c r="G241" s="11"/>
-      <c r="H241" s="11"/>
+      <c r="G241" s="12"/>
+      <c r="H241" s="12"/>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="n">
@@ -24144,15 +24217,15 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F242" s="10" t="n">
+      <c r="F242" s="11" t="n">
         <f aca="false">(E242-D242)/D242</f>
         <v>0.8955</v>
       </c>
-      <c r="G242" s="11" t="n">
+      <c r="G242" s="12" t="n">
         <f aca="false">AVERAGE(F242:F253)</f>
         <v>0.60645309454191</v>
       </c>
-      <c r="H242" s="11"/>
+      <c r="H242" s="12"/>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="n">
@@ -24171,12 +24244,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F243" s="10" t="n">
+      <c r="F243" s="11" t="n">
         <f aca="false">(E243-D243)/D243</f>
         <v>-0.473472222222222</v>
       </c>
-      <c r="G243" s="11"/>
-      <c r="H243" s="11"/>
+      <c r="G243" s="12"/>
+      <c r="H243" s="12"/>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="n">
@@ -24195,12 +24268,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F244" s="10" t="n">
+      <c r="F244" s="11" t="n">
         <f aca="false">(E244-D244)/D244</f>
         <v>1.369375</v>
       </c>
-      <c r="G244" s="11"/>
-      <c r="H244" s="11"/>
+      <c r="G244" s="12"/>
+      <c r="H244" s="12"/>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="n">
@@ -24219,12 +24292,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F245" s="10" t="n">
+      <c r="F245" s="11" t="n">
         <f aca="false">(E245-D245)/D245</f>
         <v>0.8955</v>
       </c>
-      <c r="G245" s="11"/>
-      <c r="H245" s="11"/>
+      <c r="G245" s="12"/>
+      <c r="H245" s="12"/>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="n">
@@ -24243,12 +24316,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F246" s="10" t="n">
+      <c r="F246" s="11" t="n">
         <f aca="false">(E246-D246)/D246</f>
         <v>1.369375</v>
       </c>
-      <c r="G246" s="11"/>
-      <c r="H246" s="11"/>
+      <c r="G246" s="12"/>
+      <c r="H246" s="12"/>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="n">
@@ -24267,12 +24340,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F247" s="10" t="n">
+      <c r="F247" s="11" t="n">
         <f aca="false">(E247-D247)/D247</f>
         <v>1.369375</v>
       </c>
-      <c r="G247" s="11"/>
-      <c r="H247" s="11"/>
+      <c r="G247" s="12"/>
+      <c r="H247" s="12"/>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="n">
@@ -24291,12 +24364,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F248" s="10" t="n">
+      <c r="F248" s="11" t="n">
         <f aca="false">(E248-D248)/D248</f>
         <v>0.1846875</v>
       </c>
-      <c r="G248" s="11"/>
-      <c r="H248" s="11"/>
+      <c r="G248" s="12"/>
+      <c r="H248" s="12"/>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="n">
@@ -24315,12 +24388,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F249" s="10" t="n">
+      <c r="F249" s="11" t="n">
         <f aca="false">(E249-D249)/D249</f>
         <v>1.10611111111111</v>
       </c>
-      <c r="G249" s="11"/>
-      <c r="H249" s="11"/>
+      <c r="G249" s="12"/>
+      <c r="H249" s="12"/>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="n">
@@ -24339,12 +24412,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F250" s="10" t="n">
+      <c r="F250" s="11" t="n">
         <f aca="false">(E250-D250)/D250</f>
         <v>-0.00236842105263167</v>
       </c>
-      <c r="G250" s="11"/>
-      <c r="H250" s="11"/>
+      <c r="G250" s="12"/>
+      <c r="H250" s="12"/>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="n">
@@ -24363,12 +24436,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F251" s="10" t="n">
+      <c r="F251" s="11" t="n">
         <f aca="false">(E251-D251)/D251</f>
         <v>0.1846875</v>
       </c>
-      <c r="G251" s="11"/>
-      <c r="H251" s="11"/>
+      <c r="G251" s="12"/>
+      <c r="H251" s="12"/>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="n">
@@ -24387,12 +24460,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F252" s="10" t="n">
+      <c r="F252" s="11" t="n">
         <f aca="false">(E252-D252)/D252</f>
         <v>0.263666666666667</v>
       </c>
-      <c r="G252" s="11"/>
-      <c r="H252" s="11"/>
+      <c r="G252" s="12"/>
+      <c r="H252" s="12"/>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="n">
@@ -24411,12 +24484,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F253" s="10" t="n">
+      <c r="F253" s="11" t="n">
         <f aca="false">(E253-D253)/D253</f>
         <v>0.115</v>
       </c>
-      <c r="G253" s="11"/>
-      <c r="H253" s="11"/>
+      <c r="G253" s="12"/>
+      <c r="H253" s="12"/>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="n">
@@ -24435,15 +24508,15 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F254" s="10" t="n">
+      <c r="F254" s="11" t="n">
         <f aca="false">(E254-D254)/D254</f>
         <v>0.1846875</v>
       </c>
-      <c r="G254" s="11" t="n">
+      <c r="G254" s="12" t="n">
         <f aca="false">AVERAGE(F254:F267)</f>
         <v>0.355256729723478</v>
       </c>
-      <c r="H254" s="11"/>
+      <c r="H254" s="12"/>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="n">
@@ -24462,12 +24535,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F255" s="10" t="n">
+      <c r="F255" s="11" t="n">
         <f aca="false">(E255-D255)/D255</f>
         <v>0.115</v>
       </c>
-      <c r="G255" s="11"/>
-      <c r="H255" s="11"/>
+      <c r="G255" s="12"/>
+      <c r="H255" s="12"/>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="n">
@@ -24486,12 +24559,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F256" s="10" t="n">
+      <c r="F256" s="11" t="n">
         <f aca="false">(E256-D256)/D256</f>
         <v>-0.458428571428571</v>
       </c>
-      <c r="G256" s="11"/>
-      <c r="H256" s="11"/>
+      <c r="G256" s="12"/>
+      <c r="H256" s="12"/>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="n">
@@ -24510,12 +24583,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F257" s="10" t="n">
+      <c r="F257" s="11" t="n">
         <f aca="false">(E257-D257)/D257</f>
         <v>0.1846875</v>
       </c>
-      <c r="G257" s="11"/>
-      <c r="H257" s="11"/>
+      <c r="G257" s="12"/>
+      <c r="H257" s="12"/>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="n">
@@ -24534,12 +24607,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F258" s="10" t="n">
+      <c r="F258" s="11" t="n">
         <f aca="false">(E258-D258)/D258</f>
         <v>-0.346379310344828</v>
       </c>
-      <c r="G258" s="11"/>
-      <c r="H258" s="11"/>
+      <c r="G258" s="12"/>
+      <c r="H258" s="12"/>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="n">
@@ -24558,12 +24631,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F259" s="10" t="n">
+      <c r="F259" s="11" t="n">
         <f aca="false">(E259-D259)/D259</f>
         <v>0.723181818181818</v>
       </c>
-      <c r="G259" s="11"/>
-      <c r="H259" s="11"/>
+      <c r="G259" s="12"/>
+      <c r="H259" s="12"/>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="n">
@@ -24582,12 +24655,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F260" s="10" t="n">
+      <c r="F260" s="11" t="n">
         <f aca="false">(E260-D260)/D260</f>
         <v>-0.210208333333333</v>
       </c>
-      <c r="G260" s="11"/>
-      <c r="H260" s="11"/>
+      <c r="G260" s="12"/>
+      <c r="H260" s="12"/>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="n">
@@ -24606,12 +24679,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F261" s="10" t="n">
+      <c r="F261" s="11" t="n">
         <f aca="false">(E261-D261)/D261</f>
         <v>0.579583333333333</v>
       </c>
-      <c r="G261" s="11"/>
-      <c r="H261" s="11"/>
+      <c r="G261" s="12"/>
+      <c r="H261" s="12"/>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="n">
@@ -24630,12 +24703,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F262" s="10" t="n">
+      <c r="F262" s="11" t="n">
         <f aca="false">(E262-D262)/D262</f>
         <v>0.263666666666667</v>
       </c>
-      <c r="G262" s="11"/>
-      <c r="H262" s="11"/>
+      <c r="G262" s="12"/>
+      <c r="H262" s="12"/>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="n">
@@ -24654,12 +24727,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F263" s="10" t="n">
+      <c r="F263" s="11" t="n">
         <f aca="false">(E263-D263)/D263</f>
         <v>-0.270961538461539</v>
       </c>
-      <c r="G263" s="11"/>
-      <c r="H263" s="11"/>
+      <c r="G263" s="12"/>
+      <c r="H263" s="12"/>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="n">
@@ -24678,12 +24751,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F264" s="10" t="n">
+      <c r="F264" s="11" t="n">
         <f aca="false">(E264-D264)/D264</f>
         <v>0.115</v>
       </c>
-      <c r="G264" s="11"/>
-      <c r="H264" s="11"/>
+      <c r="G264" s="12"/>
+      <c r="H264" s="12"/>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="n">
@@ -24702,12 +24775,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F265" s="10" t="n">
+      <c r="F265" s="11" t="n">
         <f aca="false">(E265-D265)/D265</f>
         <v>0.579583333333333</v>
       </c>
-      <c r="G265" s="11"/>
-      <c r="H265" s="11"/>
+      <c r="G265" s="12"/>
+      <c r="H265" s="12"/>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="n">
@@ -24726,12 +24799,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F266" s="10" t="n">
+      <c r="F266" s="11" t="n">
         <f aca="false">(E266-D266)/D266</f>
         <v>0.723181818181818</v>
       </c>
-      <c r="G266" s="11"/>
-      <c r="H266" s="11"/>
+      <c r="G266" s="12"/>
+      <c r="H266" s="12"/>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="n">
@@ -24750,12 +24823,12 @@
         <f aca="false">$L$15</f>
         <v>18.955</v>
       </c>
-      <c r="F267" s="10" t="n">
+      <c r="F267" s="11" t="n">
         <f aca="false">(E267-D267)/D267</f>
         <v>2.791</v>
       </c>
-      <c r="G267" s="11"/>
-      <c r="H267" s="11"/>
+      <c r="G267" s="12"/>
+      <c r="H267" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="24">
